--- a/src/main/resources/Rules/ProgParams/Program params.xlsx
+++ b/src/main/resources/Rules/ProgParams/Program params.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Mine\gRules\src\main\resources\Rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Mine\gRules\src\main\resources\Rules\ProgParams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF5F91-5AC8-420A-8FB5-327F8A94287F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52237A1-9E97-4BD3-9F43-1963E0FB4A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,9 +709,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,6 +721,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,14 +733,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1070,7 +1070,7 @@
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
@@ -1084,31 +1084,31 @@
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="17" t="s">
         <v>73</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1170,10 +1170,10 @@
         <v>1.23.01</v>
       </c>
       <c r="E11" s="6">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="F11" s="6">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1195,12 +1195,10 @@
         <v>1.23.02</v>
       </c>
       <c r="E12" s="1">
-        <f>E11+50000</f>
-        <v>350000</v>
+        <v>50000</v>
       </c>
       <c r="F12" s="1">
-        <f>F11+100000</f>
-        <v>1100000</v>
+        <v>7000000</v>
       </c>
       <c r="G12" s="1">
         <f>G11+1</f>
@@ -1212,7 +1210,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1224,24 +1222,22 @@
         <v>1.23.03</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E21" si="1">E12+50000</f>
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F21" si="2">F12+100000</f>
-        <v>1200000</v>
+        <v>7000000</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:G21" si="3">G12+1</f>
+        <f t="shared" ref="G13:G21" si="1">G12+1</f>
         <v>8</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H21" si="4">H12+2</f>
+        <f t="shared" ref="H13:H21" si="2">H12+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1253,24 +1249,22 @@
         <v>1.23.04</v>
       </c>
       <c r="E14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>450000</v>
-      </c>
-      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>1300000</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
@@ -1282,24 +1276,22 @@
         <v>1.23.05</v>
       </c>
       <c r="E15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>500000</v>
-      </c>
-      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>1400000</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -1311,24 +1303,22 @@
         <v>1.23.06</v>
       </c>
       <c r="E16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>550000</v>
-      </c>
-      <c r="F16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>1500000</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1340,24 +1330,22 @@
         <v>1.23.07</v>
       </c>
       <c r="E17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>600000</v>
-      </c>
-      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>1600000</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1369,12 +1357,10 @@
         <v>1.24.01</v>
       </c>
       <c r="E18" s="1">
-        <f>E11</f>
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="F18" s="1">
-        <f>F11</f>
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -1384,7 +1370,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1396,24 +1382,22 @@
         <v>1.24.02</v>
       </c>
       <c r="E19" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>350000</v>
-      </c>
-      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>1100000</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1425,24 +1409,22 @@
         <v>1.24.03</v>
       </c>
       <c r="E20" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>400000</v>
-      </c>
-      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1454,19 +1436,17 @@
         <v>1.24.04</v>
       </c>
       <c r="E21" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7000000</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>450000</v>
-      </c>
-      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
-        <v>1300000</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
@@ -1497,7 +1477,7 @@
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1506,7 +1486,7 @@
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="7" t="s">
         <v>83</v>
       </c>
@@ -1520,31 +1500,31 @@
       <c r="B30" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="17" t="s">
         <v>73</v>
       </c>
@@ -1558,7 +1538,7 @@
       <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1572,7 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -1606,12 +1586,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E35" s="6">
-        <f>E11+10000</f>
-        <v>310000</v>
+        <f>E11</f>
+        <v>50000</v>
       </c>
       <c r="F35" s="6">
-        <f>F11+50000</f>
-        <v>1050000</v>
+        <f>F11</f>
+        <v>7000000</v>
       </c>
       <c r="G35" s="6">
         <v>6</v>
@@ -1621,7 +1601,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="12" t="s">
         <v>14</v>
       </c>
@@ -1633,12 +1613,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E36" s="1">
-        <f>E35+50000</f>
-        <v>360000</v>
+        <f t="shared" ref="E36:F36" si="3">E12</f>
+        <v>50000</v>
       </c>
       <c r="F36" s="1">
-        <f>F35+100000</f>
-        <v>1150000</v>
+        <f t="shared" si="3"/>
+        <v>7000000</v>
       </c>
       <c r="G36" s="1">
         <f>G35+1</f>
@@ -1650,7 +1630,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
@@ -1658,28 +1638,28 @@
         <v>39</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" ref="D37:D45" si="5">B37</f>
+        <f t="shared" ref="D37:D45" si="4">B37</f>
         <v>1.23.03</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ref="E37:E41" si="6">E36+50000</f>
-        <v>410000</v>
+        <f t="shared" ref="E37:F37" si="5">E13</f>
+        <v>50000</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ref="F37:F41" si="7">F36+100000</f>
-        <v>1250000</v>
+        <f t="shared" si="5"/>
+        <v>7000000</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" ref="G37:G41" si="8">G36+1</f>
+        <f t="shared" ref="G37:G41" si="6">G36+1</f>
         <v>8</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" ref="H37:H41" si="9">H36+2</f>
+        <f t="shared" ref="H37:H41" si="7">H36+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="12" t="s">
         <v>16</v>
       </c>
@@ -1687,28 +1667,28 @@
         <v>40</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.23.04</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" ref="E38:F38" si="8">E14</f>
+        <v>50000</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="8"/>
+        <v>7000000</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="6"/>
-        <v>460000</v>
-      </c>
-      <c r="F38" s="1">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="7"/>
-        <v>1350000</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="12" t="s">
         <v>17</v>
       </c>
@@ -1716,28 +1696,28 @@
         <v>41</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.23.05</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" ref="E39:F39" si="9">E15</f>
+        <v>50000</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="9"/>
+        <v>7000000</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="6"/>
-        <v>510000</v>
-      </c>
-      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="7"/>
-        <v>1450000</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="9"/>
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="12" t="s">
         <v>18</v>
       </c>
@@ -1745,28 +1725,28 @@
         <v>42</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.23.06</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" ref="E40:F40" si="10">E16</f>
+        <v>50000</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="10"/>
+        <v>7000000</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="6"/>
-        <v>560000</v>
-      </c>
-      <c r="F40" s="1">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="7"/>
-        <v>1550000</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
@@ -1774,28 +1754,28 @@
         <v>43</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.23.07</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ref="E41:F41" si="11">E17</f>
+        <v>50000</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="11"/>
+        <v>7000000</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="6"/>
-        <v>610000</v>
-      </c>
-      <c r="F41" s="1">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="7"/>
-        <v>1650000</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="12" t="s">
         <v>12</v>
       </c>
@@ -1803,16 +1783,16 @@
         <v>44</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.24.01</v>
       </c>
       <c r="E42" s="1">
-        <f>E35</f>
-        <v>310000</v>
+        <f t="shared" ref="E42:F42" si="12">E18</f>
+        <v>50000</v>
       </c>
       <c r="F42" s="1">
-        <f>F35</f>
-        <v>1050000</v>
+        <f t="shared" si="12"/>
+        <v>7000000</v>
       </c>
       <c r="G42" s="1">
         <v>7</v>
@@ -1822,7 +1802,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="12" t="s">
         <v>20</v>
       </c>
@@ -1830,28 +1810,28 @@
         <v>45</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.24.02</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ref="E43:E45" si="10">E42+50000</f>
-        <v>360000</v>
+        <f t="shared" ref="E43:F43" si="13">E19</f>
+        <v>50000</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ref="F43:F45" si="11">F42+100000</f>
-        <v>1150000</v>
+        <f t="shared" si="13"/>
+        <v>7000000</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" ref="G43:G45" si="12">G42+1</f>
+        <f t="shared" ref="G43:G45" si="14">G42+1</f>
         <v>8</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ref="H43:H45" si="13">H42+2</f>
+        <f t="shared" ref="H43:H45" si="15">H42+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
@@ -1859,28 +1839,28 @@
         <v>46</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.24.03</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="10"/>
-        <v>410000</v>
+        <f t="shared" ref="E44:F44" si="16">E20</f>
+        <v>50000</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="11"/>
-        <v>1250000</v>
+        <f t="shared" si="16"/>
+        <v>7000000</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="13" t="s">
         <v>22</v>
       </c>
@@ -1888,23 +1868,23 @@
         <v>47</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.24.04</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="10"/>
-        <v>460000</v>
+        <f t="shared" ref="E45:F45" si="17">E21</f>
+        <v>50000</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="11"/>
-        <v>1350000</v>
+        <f t="shared" si="17"/>
+        <v>7000000</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
     </row>
@@ -1935,7 +1915,7 @@
       <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -1944,7 +1924,7 @@
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="7" t="s">
         <v>85</v>
       </c>
@@ -1958,31 +1938,31 @@
       <c r="B54" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="17" t="s">
         <v>73</v>
       </c>
@@ -1996,7 +1976,7 @@
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2010,7 @@
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -2044,12 +2024,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E59" s="6">
-        <f>E35+10000</f>
-        <v>320000</v>
+        <f>E35</f>
+        <v>50000</v>
       </c>
       <c r="F59" s="6">
-        <f>F35+50000</f>
-        <v>1100000</v>
+        <f>F35</f>
+        <v>7000000</v>
       </c>
       <c r="G59" s="6">
         <v>6</v>
@@ -2059,7 +2039,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="12" t="s">
         <v>14</v>
       </c>
@@ -2071,12 +2051,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E60" s="1">
-        <f>E59+50000</f>
-        <v>370000</v>
+        <f t="shared" ref="E60:F60" si="18">E36</f>
+        <v>50000</v>
       </c>
       <c r="F60" s="1">
-        <f>F59+100000</f>
-        <v>1200000</v>
+        <f t="shared" si="18"/>
+        <v>7000000</v>
       </c>
       <c r="G60" s="1">
         <f>G59+1</f>
@@ -2088,7 +2068,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="12" t="s">
         <v>15</v>
       </c>
@@ -2096,28 +2076,28 @@
         <v>39</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" ref="D61:D69" si="14">B61</f>
+        <f t="shared" ref="D61:D69" si="19">B61</f>
         <v>1.23.03</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E65" si="15">E60+50000</f>
-        <v>420000</v>
+        <f t="shared" ref="E61:F61" si="20">E37</f>
+        <v>50000</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ref="F61:F65" si="16">F60+100000</f>
-        <v>1300000</v>
+        <f t="shared" si="20"/>
+        <v>7000000</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" ref="G61:G65" si="17">G60+1</f>
+        <f t="shared" ref="G61:G65" si="21">G60+1</f>
         <v>8</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" ref="H61:H65" si="18">H60+2</f>
+        <f t="shared" ref="H61:H65" si="22">H60+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="12" t="s">
         <v>16</v>
       </c>
@@ -2125,28 +2105,28 @@
         <v>40</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.23.04</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="15"/>
-        <v>470000</v>
+        <f t="shared" ref="E62:F62" si="23">E38</f>
+        <v>50000</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="16"/>
-        <v>1400000</v>
+        <f t="shared" si="23"/>
+        <v>7000000</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="12" t="s">
         <v>17</v>
       </c>
@@ -2154,28 +2134,28 @@
         <v>41</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.23.05</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="15"/>
-        <v>520000</v>
+        <f t="shared" ref="E63:F63" si="24">E39</f>
+        <v>50000</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="16"/>
-        <v>1500000</v>
+        <f t="shared" si="24"/>
+        <v>7000000</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="12" t="s">
         <v>18</v>
       </c>
@@ -2183,28 +2163,28 @@
         <v>42</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.23.06</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="15"/>
-        <v>570000</v>
+        <f t="shared" ref="E64:F64" si="25">E40</f>
+        <v>50000</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="16"/>
-        <v>1600000</v>
+        <f t="shared" si="25"/>
+        <v>7000000</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="12" t="s">
         <v>19</v>
       </c>
@@ -2212,28 +2192,28 @@
         <v>43</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.23.07</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="15"/>
-        <v>620000</v>
+        <f t="shared" ref="E65:F65" si="26">E41</f>
+        <v>50000</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="16"/>
-        <v>1700000</v>
+        <f t="shared" si="26"/>
+        <v>7000000</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="12" t="s">
         <v>12</v>
       </c>
@@ -2241,16 +2221,16 @@
         <v>44</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.24.01</v>
       </c>
       <c r="E66" s="1">
-        <f>E59</f>
-        <v>320000</v>
+        <f t="shared" ref="E66:F66" si="27">E42</f>
+        <v>50000</v>
       </c>
       <c r="F66" s="1">
-        <f>F59</f>
-        <v>1100000</v>
+        <f t="shared" si="27"/>
+        <v>7000000</v>
       </c>
       <c r="G66" s="1">
         <v>7</v>
@@ -2260,7 +2240,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="12" t="s">
         <v>20</v>
       </c>
@@ -2268,28 +2248,28 @@
         <v>45</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.24.02</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E69" si="19">E66+50000</f>
-        <v>370000</v>
+        <f t="shared" ref="E67:F67" si="28">E43</f>
+        <v>50000</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F69" si="20">F66+100000</f>
-        <v>1200000</v>
+        <f t="shared" si="28"/>
+        <v>7000000</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G69" si="21">G66+1</f>
+        <f t="shared" ref="G67:G69" si="29">G66+1</f>
         <v>8</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:H69" si="22">H66+2</f>
+        <f t="shared" ref="H67:H69" si="30">H66+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="12" t="s">
         <v>21</v>
       </c>
@@ -2297,28 +2277,28 @@
         <v>46</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.24.03</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="19"/>
-        <v>420000</v>
+        <f t="shared" ref="E68:F68" si="31">E44</f>
+        <v>50000</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="20"/>
-        <v>1300000</v>
+        <f t="shared" si="31"/>
+        <v>7000000</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="13" t="s">
         <v>22</v>
       </c>
@@ -2326,23 +2306,23 @@
         <v>47</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.24.04</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="19"/>
-        <v>470000</v>
+        <f t="shared" ref="E69:F69" si="32">E45</f>
+        <v>50000</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="20"/>
-        <v>1400000</v>
+        <f t="shared" si="32"/>
+        <v>7000000</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>44</v>
       </c>
     </row>
@@ -2373,7 +2353,7 @@
       <c r="C74" s="19"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -2382,7 +2362,7 @@
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="7" t="s">
         <v>87</v>
       </c>
@@ -2396,31 +2376,31 @@
       <c r="B78" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="27"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="17" t="s">
         <v>73</v>
       </c>
@@ -2434,7 +2414,7 @@
       <c r="H80" s="30"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="8" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2448,7 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -2482,12 +2462,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E83" s="6">
-        <f>E59+10000</f>
-        <v>330000</v>
+        <f>E59</f>
+        <v>50000</v>
       </c>
       <c r="F83" s="6">
-        <f>F59+50000</f>
-        <v>1150000</v>
+        <f>F59</f>
+        <v>7000000</v>
       </c>
       <c r="G83" s="6">
         <v>6</v>
@@ -2497,7 +2477,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="12" t="s">
         <v>14</v>
       </c>
@@ -2509,12 +2489,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E84" s="1">
-        <f>E83+50000</f>
-        <v>380000</v>
+        <f t="shared" ref="E84:F84" si="33">E60</f>
+        <v>50000</v>
       </c>
       <c r="F84" s="1">
-        <f>F83+100000</f>
-        <v>1250000</v>
+        <f t="shared" si="33"/>
+        <v>7000000</v>
       </c>
       <c r="G84" s="1">
         <f>G83+1</f>
@@ -2526,7 +2506,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="12" t="s">
         <v>15</v>
       </c>
@@ -2534,28 +2514,28 @@
         <v>39</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" ref="D85:D93" si="23">B85</f>
+        <f t="shared" ref="D85:D93" si="34">B85</f>
         <v>1.23.03</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ref="E85:E89" si="24">E84+50000</f>
-        <v>430000</v>
+        <f t="shared" ref="E85:F85" si="35">E61</f>
+        <v>50000</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" ref="F85:F89" si="25">F84+100000</f>
-        <v>1350000</v>
+        <f t="shared" si="35"/>
+        <v>7000000</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" ref="G85:G89" si="26">G84+1</f>
+        <f t="shared" ref="G85:G89" si="36">G84+1</f>
         <v>8</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" ref="H85:H89" si="27">H84+2</f>
+        <f t="shared" ref="H85:H89" si="37">H84+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="12" t="s">
         <v>16</v>
       </c>
@@ -2563,28 +2543,28 @@
         <v>40</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.23.04</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="24"/>
-        <v>480000</v>
+        <f t="shared" ref="E86:F86" si="38">E62</f>
+        <v>50000</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="25"/>
-        <v>1450000</v>
+        <f t="shared" si="38"/>
+        <v>7000000</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="12" t="s">
         <v>17</v>
       </c>
@@ -2592,28 +2572,28 @@
         <v>41</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.23.05</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="24"/>
-        <v>530000</v>
+        <f t="shared" ref="E87:F87" si="39">E63</f>
+        <v>50000</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="25"/>
-        <v>1550000</v>
+        <f t="shared" si="39"/>
+        <v>7000000</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="12" t="s">
         <v>18</v>
       </c>
@@ -2621,28 +2601,28 @@
         <v>42</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.23.06</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="24"/>
-        <v>580000</v>
+        <f t="shared" ref="E88:F88" si="40">E64</f>
+        <v>50000</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="25"/>
-        <v>1650000</v>
+        <f t="shared" si="40"/>
+        <v>7000000</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="12" t="s">
         <v>19</v>
       </c>
@@ -2650,28 +2630,28 @@
         <v>43</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.23.07</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="24"/>
-        <v>630000</v>
+        <f t="shared" ref="E89:F89" si="41">E65</f>
+        <v>50000</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="25"/>
-        <v>1750000</v>
+        <f t="shared" si="41"/>
+        <v>7000000</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="12" t="s">
         <v>12</v>
       </c>
@@ -2679,16 +2659,16 @@
         <v>44</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.24.01</v>
       </c>
       <c r="E90" s="1">
-        <f>E83</f>
-        <v>330000</v>
+        <f t="shared" ref="E90:F90" si="42">E66</f>
+        <v>50000</v>
       </c>
       <c r="F90" s="1">
-        <f>F83</f>
-        <v>1150000</v>
+        <f t="shared" si="42"/>
+        <v>7000000</v>
       </c>
       <c r="G90" s="1">
         <v>7</v>
@@ -2698,7 +2678,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="12" t="s">
         <v>20</v>
       </c>
@@ -2706,28 +2686,28 @@
         <v>45</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.24.02</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" ref="E91:E93" si="28">E90+50000</f>
-        <v>380000</v>
+        <f t="shared" ref="E91:F91" si="43">E67</f>
+        <v>50000</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" ref="F91:F93" si="29">F90+100000</f>
-        <v>1250000</v>
+        <f t="shared" si="43"/>
+        <v>7000000</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" ref="G91:G93" si="30">G90+1</f>
+        <f t="shared" ref="G91:G93" si="44">G90+1</f>
         <v>8</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" ref="H91:H93" si="31">H90+2</f>
+        <f t="shared" ref="H91:H93" si="45">H90+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="12" t="s">
         <v>21</v>
       </c>
@@ -2735,28 +2715,28 @@
         <v>46</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.24.03</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="28"/>
-        <v>430000</v>
+        <f t="shared" ref="E92:F92" si="46">E68</f>
+        <v>50000</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="29"/>
-        <v>1350000</v>
+        <f t="shared" si="46"/>
+        <v>7000000</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="13" t="s">
         <v>22</v>
       </c>
@@ -2764,23 +2744,23 @@
         <v>47</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>1.24.04</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="28"/>
-        <v>480000</v>
+        <f t="shared" ref="E93:F93" si="47">E69</f>
+        <v>50000</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="29"/>
-        <v>1450000</v>
+        <f t="shared" si="47"/>
+        <v>7000000</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>44</v>
       </c>
     </row>
@@ -2811,7 +2791,7 @@
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -2820,7 +2800,7 @@
       <c r="C99" s="7"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="7" t="s">
         <v>89</v>
       </c>
@@ -2834,31 +2814,31 @@
       <c r="B102" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="17" t="s">
         <v>73</v>
       </c>
@@ -2872,7 +2852,7 @@
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="33"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="8" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2886,7 @@
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -2920,12 +2900,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E107" s="6">
-        <f>E83+10000</f>
-        <v>340000</v>
+        <f>E83</f>
+        <v>50000</v>
       </c>
       <c r="F107" s="6">
-        <f>F83+50000</f>
-        <v>1200000</v>
+        <f>F83</f>
+        <v>7000000</v>
       </c>
       <c r="G107" s="6">
         <v>6</v>
@@ -2935,7 +2915,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
+      <c r="A108" s="27"/>
       <c r="B108" s="12" t="s">
         <v>14</v>
       </c>
@@ -2947,12 +2927,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E108" s="1">
-        <f>E107+50000</f>
-        <v>390000</v>
+        <f t="shared" ref="E108:F108" si="48">E84</f>
+        <v>50000</v>
       </c>
       <c r="F108" s="1">
-        <f>F107+100000</f>
-        <v>1300000</v>
+        <f t="shared" si="48"/>
+        <v>7000000</v>
       </c>
       <c r="G108" s="1">
         <f>G107+1</f>
@@ -2964,7 +2944,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
+      <c r="A109" s="27"/>
       <c r="B109" s="12" t="s">
         <v>15</v>
       </c>
@@ -2972,28 +2952,28 @@
         <v>39</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" ref="D109:D117" si="32">B109</f>
+        <f t="shared" ref="D109:D117" si="49">B109</f>
         <v>1.23.03</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" ref="E109:E113" si="33">E108+50000</f>
-        <v>440000</v>
+        <f t="shared" ref="E109:F109" si="50">E85</f>
+        <v>50000</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" ref="F109:F113" si="34">F108+100000</f>
-        <v>1400000</v>
+        <f t="shared" si="50"/>
+        <v>7000000</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" ref="G109:G113" si="35">G108+1</f>
+        <f t="shared" ref="G109:G113" si="51">G108+1</f>
         <v>8</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" ref="H109:H113" si="36">H108+2</f>
+        <f t="shared" ref="H109:H113" si="52">H108+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
+      <c r="A110" s="27"/>
       <c r="B110" s="12" t="s">
         <v>16</v>
       </c>
@@ -3001,28 +2981,28 @@
         <v>40</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.23.04</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="33"/>
-        <v>490000</v>
+        <f t="shared" ref="E110:F110" si="53">E86</f>
+        <v>50000</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="34"/>
-        <v>1500000</v>
+        <f t="shared" si="53"/>
+        <v>7000000</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
+      <c r="A111" s="27"/>
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
@@ -3030,28 +3010,28 @@
         <v>41</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.23.05</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="33"/>
-        <v>540000</v>
+        <f t="shared" ref="E111:F111" si="54">E87</f>
+        <v>50000</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="34"/>
-        <v>1600000</v>
+        <f t="shared" si="54"/>
+        <v>7000000</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="12" t="s">
         <v>18</v>
       </c>
@@ -3059,28 +3039,28 @@
         <v>42</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.23.06</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="33"/>
-        <v>590000</v>
+        <f t="shared" ref="E112:F112" si="55">E88</f>
+        <v>50000</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="34"/>
-        <v>1700000</v>
+        <f t="shared" si="55"/>
+        <v>7000000</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
+      <c r="A113" s="27"/>
       <c r="B113" s="12" t="s">
         <v>19</v>
       </c>
@@ -3088,28 +3068,28 @@
         <v>43</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.23.07</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="33"/>
-        <v>640000</v>
+        <f t="shared" ref="E113:F113" si="56">E89</f>
+        <v>50000</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="34"/>
-        <v>1800000</v>
+        <f t="shared" si="56"/>
+        <v>7000000</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>12</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
+      <c r="A114" s="27"/>
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
@@ -3117,16 +3097,16 @@
         <v>44</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.24.01</v>
       </c>
       <c r="E114" s="1">
-        <f>E107</f>
-        <v>340000</v>
+        <f t="shared" ref="E114:F114" si="57">E90</f>
+        <v>50000</v>
       </c>
       <c r="F114" s="1">
-        <f>F107</f>
-        <v>1200000</v>
+        <f t="shared" si="57"/>
+        <v>7000000</v>
       </c>
       <c r="G114" s="1">
         <v>7</v>
@@ -3136,7 +3116,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
+      <c r="A115" s="27"/>
       <c r="B115" s="12" t="s">
         <v>20</v>
       </c>
@@ -3144,28 +3124,28 @@
         <v>45</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.24.02</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" ref="E115:E117" si="37">E114+50000</f>
-        <v>390000</v>
+        <f t="shared" ref="E115:F115" si="58">E91</f>
+        <v>50000</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" ref="F115:F117" si="38">F114+100000</f>
-        <v>1300000</v>
+        <f t="shared" si="58"/>
+        <v>7000000</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" ref="G115:G117" si="39">G114+1</f>
+        <f t="shared" ref="G115:G117" si="59">G114+1</f>
         <v>8</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" ref="H115:H117" si="40">H114+2</f>
+        <f t="shared" ref="H115:H117" si="60">H114+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
+      <c r="A116" s="27"/>
       <c r="B116" s="12" t="s">
         <v>21</v>
       </c>
@@ -3173,28 +3153,28 @@
         <v>46</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.24.03</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="37"/>
-        <v>440000</v>
+        <f t="shared" ref="E116:F116" si="61">E92</f>
+        <v>50000</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="38"/>
-        <v>1400000</v>
+        <f t="shared" si="61"/>
+        <v>7000000</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="32"/>
+      <c r="A117" s="27"/>
       <c r="B117" s="13" t="s">
         <v>22</v>
       </c>
@@ -3202,23 +3182,23 @@
         <v>47</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>1.24.04</v>
       </c>
       <c r="E117" s="2">
-        <f t="shared" si="37"/>
-        <v>490000</v>
+        <f t="shared" ref="E117:F117" si="62">E93</f>
+        <v>50000</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="38"/>
-        <v>1500000</v>
+        <f t="shared" si="62"/>
+        <v>7000000</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>44</v>
       </c>
     </row>
@@ -3249,7 +3229,7 @@
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B123" s="7" t="s">
@@ -3258,7 +3238,7 @@
       <c r="C123" s="7"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="7" t="s">
         <v>91</v>
       </c>
@@ -3272,31 +3252,31 @@
       <c r="B126" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C127" s="25"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="27"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="17" t="s">
         <v>73</v>
       </c>
@@ -3310,7 +3290,7 @@
       <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="33"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="8" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3324,7 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -3358,12 +3338,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E131" s="6">
-        <f>E107+10000</f>
-        <v>350000</v>
+        <f>E107</f>
+        <v>50000</v>
       </c>
       <c r="F131" s="6">
-        <f>F107+50000</f>
-        <v>1250000</v>
+        <f>F107</f>
+        <v>7000000</v>
       </c>
       <c r="G131" s="6">
         <v>6</v>
@@ -3373,7 +3353,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
+      <c r="A132" s="27"/>
       <c r="B132" s="12" t="s">
         <v>14</v>
       </c>
@@ -3385,12 +3365,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E132" s="1">
-        <f>E131+50000</f>
-        <v>400000</v>
+        <f t="shared" ref="E132:F132" si="63">E108</f>
+        <v>50000</v>
       </c>
       <c r="F132" s="1">
-        <f>F131+100000</f>
-        <v>1350000</v>
+        <f t="shared" si="63"/>
+        <v>7000000</v>
       </c>
       <c r="G132" s="1">
         <f>G131+1</f>
@@ -3402,7 +3382,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
+      <c r="A133" s="27"/>
       <c r="B133" s="12" t="s">
         <v>15</v>
       </c>
@@ -3410,28 +3390,28 @@
         <v>39</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f t="shared" ref="D133:D141" si="41">B133</f>
+        <f t="shared" ref="D133:D141" si="64">B133</f>
         <v>1.23.03</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" ref="E133:E137" si="42">E132+50000</f>
-        <v>450000</v>
+        <f t="shared" ref="E133:F133" si="65">E109</f>
+        <v>50000</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" ref="F133:F137" si="43">F132+100000</f>
-        <v>1450000</v>
+        <f t="shared" si="65"/>
+        <v>7000000</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" ref="G133:G137" si="44">G132+1</f>
+        <f t="shared" ref="G133:G137" si="66">G132+1</f>
         <v>8</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" ref="H133:H137" si="45">H132+2</f>
+        <f t="shared" ref="H133:H137" si="67">H132+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
+      <c r="A134" s="27"/>
       <c r="B134" s="12" t="s">
         <v>16</v>
       </c>
@@ -3439,28 +3419,28 @@
         <v>40</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.23.04</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="42"/>
-        <v>500000</v>
+        <f t="shared" ref="E134:F134" si="68">E110</f>
+        <v>50000</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="43"/>
-        <v>1550000</v>
+        <f t="shared" si="68"/>
+        <v>7000000</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>9</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
+      <c r="A135" s="27"/>
       <c r="B135" s="12" t="s">
         <v>17</v>
       </c>
@@ -3468,28 +3448,28 @@
         <v>41</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.23.05</v>
       </c>
       <c r="E135" s="1">
-        <f t="shared" si="42"/>
-        <v>550000</v>
+        <f t="shared" ref="E135:F135" si="69">E111</f>
+        <v>50000</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="43"/>
-        <v>1650000</v>
+        <f t="shared" si="69"/>
+        <v>7000000</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
+      <c r="A136" s="27"/>
       <c r="B136" s="12" t="s">
         <v>18</v>
       </c>
@@ -3497,28 +3477,28 @@
         <v>42</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.23.06</v>
       </c>
       <c r="E136" s="1">
-        <f t="shared" si="42"/>
-        <v>600000</v>
+        <f t="shared" ref="E136:F136" si="70">E112</f>
+        <v>50000</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="43"/>
-        <v>1750000</v>
+        <f t="shared" si="70"/>
+        <v>7000000</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>11</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
+      <c r="A137" s="27"/>
       <c r="B137" s="12" t="s">
         <v>19</v>
       </c>
@@ -3526,28 +3506,28 @@
         <v>43</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.23.07</v>
       </c>
       <c r="E137" s="1">
-        <f t="shared" si="42"/>
-        <v>650000</v>
+        <f t="shared" ref="E137:F137" si="71">E113</f>
+        <v>50000</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="43"/>
-        <v>1850000</v>
+        <f t="shared" si="71"/>
+        <v>7000000</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="66"/>
         <v>12</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="32"/>
+      <c r="A138" s="27"/>
       <c r="B138" s="12" t="s">
         <v>12</v>
       </c>
@@ -3555,16 +3535,16 @@
         <v>44</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.24.01</v>
       </c>
       <c r="E138" s="1">
-        <f>E131</f>
-        <v>350000</v>
+        <f t="shared" ref="E138:F138" si="72">E114</f>
+        <v>50000</v>
       </c>
       <c r="F138" s="1">
-        <f>F131</f>
-        <v>1250000</v>
+        <f t="shared" si="72"/>
+        <v>7000000</v>
       </c>
       <c r="G138" s="1">
         <v>7</v>
@@ -3574,7 +3554,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
+      <c r="A139" s="27"/>
       <c r="B139" s="12" t="s">
         <v>20</v>
       </c>
@@ -3582,28 +3562,28 @@
         <v>45</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.24.02</v>
       </c>
       <c r="E139" s="1">
-        <f t="shared" ref="E139:E141" si="46">E138+50000</f>
-        <v>400000</v>
+        <f t="shared" ref="E139:F139" si="73">E115</f>
+        <v>50000</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" ref="F139:F141" si="47">F138+100000</f>
-        <v>1350000</v>
+        <f t="shared" si="73"/>
+        <v>7000000</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" ref="G139:G141" si="48">G138+1</f>
+        <f t="shared" ref="G139:G141" si="74">G138+1</f>
         <v>8</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" ref="H139:H141" si="49">H138+2</f>
+        <f t="shared" ref="H139:H141" si="75">H138+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
+      <c r="A140" s="27"/>
       <c r="B140" s="12" t="s">
         <v>21</v>
       </c>
@@ -3611,28 +3591,28 @@
         <v>46</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.24.03</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" si="46"/>
-        <v>450000</v>
+        <f t="shared" ref="E140:F140" si="76">E116</f>
+        <v>50000</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="47"/>
-        <v>1450000</v>
+        <f t="shared" si="76"/>
+        <v>7000000</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>9</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
+      <c r="A141" s="27"/>
       <c r="B141" s="13" t="s">
         <v>22</v>
       </c>
@@ -3640,23 +3620,23 @@
         <v>47</v>
       </c>
       <c r="D141" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>1.24.04</v>
       </c>
       <c r="E141" s="2">
-        <f t="shared" si="46"/>
-        <v>500000</v>
+        <f t="shared" ref="E141:F141" si="77">E117</f>
+        <v>50000</v>
       </c>
       <c r="F141" s="2">
-        <f t="shared" si="47"/>
-        <v>1550000</v>
+        <f t="shared" si="77"/>
+        <v>7000000</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>44</v>
       </c>
     </row>
@@ -3687,7 +3667,7 @@
       <c r="C146" s="19"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -3696,7 +3676,7 @@
       <c r="C147" s="7"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="7" t="s">
         <v>93</v>
       </c>
@@ -3710,31 +3690,31 @@
       <c r="B150" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="24" t="s">
+      <c r="B151" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C151" s="25"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="27"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="26"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="17" t="s">
         <v>73</v>
       </c>
@@ -3748,7 +3728,7 @@
       <c r="H152" s="30"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="33"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="8" t="s">
         <v>7</v>
       </c>
@@ -3782,7 +3762,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -3796,12 +3776,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E155" s="6">
-        <f>E131+10000</f>
-        <v>360000</v>
+        <f>E131</f>
+        <v>50000</v>
       </c>
       <c r="F155" s="6">
-        <f>F131+50000</f>
-        <v>1300000</v>
+        <f>F131</f>
+        <v>7000000</v>
       </c>
       <c r="G155" s="6">
         <v>6</v>
@@ -3811,7 +3791,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="32"/>
+      <c r="A156" s="27"/>
       <c r="B156" s="12" t="s">
         <v>14</v>
       </c>
@@ -3823,12 +3803,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E156" s="1">
-        <f>E155+50000</f>
-        <v>410000</v>
+        <f t="shared" ref="E156:F156" si="78">E132</f>
+        <v>50000</v>
       </c>
       <c r="F156" s="1">
-        <f>F155+100000</f>
-        <v>1400000</v>
+        <f t="shared" si="78"/>
+        <v>7000000</v>
       </c>
       <c r="G156" s="1">
         <f>G155+1</f>
@@ -3840,7 +3820,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="32"/>
+      <c r="A157" s="27"/>
       <c r="B157" s="12" t="s">
         <v>15</v>
       </c>
@@ -3848,28 +3828,28 @@
         <v>39</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f t="shared" ref="D157:D165" si="50">B157</f>
+        <f t="shared" ref="D157:D165" si="79">B157</f>
         <v>1.23.03</v>
       </c>
       <c r="E157" s="1">
-        <f t="shared" ref="E157:E161" si="51">E156+50000</f>
-        <v>460000</v>
+        <f t="shared" ref="E157:F157" si="80">E133</f>
+        <v>50000</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" ref="F157:F161" si="52">F156+100000</f>
-        <v>1500000</v>
+        <f t="shared" si="80"/>
+        <v>7000000</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" ref="G157:G161" si="53">G156+1</f>
+        <f t="shared" ref="G157:G161" si="81">G156+1</f>
         <v>8</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" ref="H157:H161" si="54">H156+2</f>
+        <f t="shared" ref="H157:H161" si="82">H156+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="32"/>
+      <c r="A158" s="27"/>
       <c r="B158" s="12" t="s">
         <v>16</v>
       </c>
@@ -3877,28 +3857,28 @@
         <v>40</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.23.04</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" si="51"/>
-        <v>510000</v>
+        <f t="shared" ref="E158:F158" si="83">E134</f>
+        <v>50000</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="52"/>
-        <v>1600000</v>
+        <f t="shared" si="83"/>
+        <v>7000000</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>9</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="82"/>
         <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
+      <c r="A159" s="27"/>
       <c r="B159" s="12" t="s">
         <v>17</v>
       </c>
@@ -3906,28 +3886,28 @@
         <v>41</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.23.05</v>
       </c>
       <c r="E159" s="1">
-        <f t="shared" si="51"/>
-        <v>560000</v>
+        <f t="shared" ref="E159:F159" si="84">E135</f>
+        <v>50000</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="52"/>
-        <v>1700000</v>
+        <f t="shared" si="84"/>
+        <v>7000000</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>10</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="82"/>
         <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="32"/>
+      <c r="A160" s="27"/>
       <c r="B160" s="12" t="s">
         <v>18</v>
       </c>
@@ -3935,28 +3915,28 @@
         <v>42</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.23.06</v>
       </c>
       <c r="E160" s="1">
-        <f t="shared" si="51"/>
-        <v>610000</v>
+        <f t="shared" ref="E160:F160" si="85">E136</f>
+        <v>50000</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="52"/>
-        <v>1800000</v>
+        <f t="shared" si="85"/>
+        <v>7000000</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>11</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="82"/>
         <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="32"/>
+      <c r="A161" s="27"/>
       <c r="B161" s="12" t="s">
         <v>19</v>
       </c>
@@ -3964,28 +3944,28 @@
         <v>43</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.23.07</v>
       </c>
       <c r="E161" s="1">
-        <f t="shared" si="51"/>
-        <v>660000</v>
+        <f t="shared" ref="E161:F161" si="86">E137</f>
+        <v>50000</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="52"/>
-        <v>1900000</v>
+        <f t="shared" si="86"/>
+        <v>7000000</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>12</v>
       </c>
       <c r="H161" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="82"/>
         <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
+      <c r="A162" s="27"/>
       <c r="B162" s="12" t="s">
         <v>12</v>
       </c>
@@ -3993,16 +3973,16 @@
         <v>44</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.24.01</v>
       </c>
       <c r="E162" s="1">
-        <f>E155</f>
-        <v>360000</v>
+        <f t="shared" ref="E162:F162" si="87">E138</f>
+        <v>50000</v>
       </c>
       <c r="F162" s="1">
-        <f>F155</f>
-        <v>1300000</v>
+        <f t="shared" si="87"/>
+        <v>7000000</v>
       </c>
       <c r="G162" s="1">
         <v>7</v>
@@ -4012,7 +3992,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="32"/>
+      <c r="A163" s="27"/>
       <c r="B163" s="12" t="s">
         <v>20</v>
       </c>
@@ -4020,28 +4000,28 @@
         <v>45</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.24.02</v>
       </c>
       <c r="E163" s="1">
-        <f t="shared" ref="E163:E165" si="55">E162+50000</f>
-        <v>410000</v>
+        <f t="shared" ref="E163:F163" si="88">E139</f>
+        <v>50000</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" ref="F163:F165" si="56">F162+100000</f>
-        <v>1400000</v>
+        <f t="shared" si="88"/>
+        <v>7000000</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" ref="G163:G165" si="57">G162+1</f>
+        <f t="shared" ref="G163:G165" si="89">G162+1</f>
         <v>8</v>
       </c>
       <c r="H163" s="1">
-        <f t="shared" ref="H163:H165" si="58">H162+2</f>
+        <f t="shared" ref="H163:H165" si="90">H162+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
+      <c r="A164" s="27"/>
       <c r="B164" s="12" t="s">
         <v>21</v>
       </c>
@@ -4049,28 +4029,28 @@
         <v>46</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.24.03</v>
       </c>
       <c r="E164" s="1">
-        <f t="shared" si="55"/>
-        <v>460000</v>
+        <f t="shared" ref="E164:F164" si="91">E140</f>
+        <v>50000</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="56"/>
-        <v>1500000</v>
+        <f t="shared" si="91"/>
+        <v>7000000</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>9</v>
       </c>
       <c r="H164" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
+      <c r="A165" s="27"/>
       <c r="B165" s="13" t="s">
         <v>22</v>
       </c>
@@ -4078,23 +4058,23 @@
         <v>47</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="79"/>
         <v>1.24.04</v>
       </c>
       <c r="E165" s="2">
-        <f t="shared" si="55"/>
-        <v>510000</v>
+        <f t="shared" ref="E165:F165" si="92">E141</f>
+        <v>50000</v>
       </c>
       <c r="F165" s="2">
-        <f t="shared" si="56"/>
-        <v>1600000</v>
+        <f t="shared" si="92"/>
+        <v>7000000</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>10</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>44</v>
       </c>
     </row>
@@ -4125,7 +4105,7 @@
       <c r="C170" s="19"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -4134,7 +4114,7 @@
       <c r="C171" s="7"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
+      <c r="A172" s="32"/>
       <c r="B172" s="7" t="s">
         <v>95</v>
       </c>
@@ -4148,31 +4128,31 @@
       <c r="B174" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="33" t="s">
+      <c r="A175" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C175" s="25"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="27"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="26"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="33"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="17" t="s">
         <v>73</v>
       </c>
@@ -4186,7 +4166,7 @@
       <c r="H176" s="30"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="33"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="8" t="s">
         <v>7</v>
       </c>
@@ -4220,7 +4200,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -4234,12 +4214,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E179" s="6">
-        <f>E155+10000</f>
-        <v>370000</v>
+        <f>E155</f>
+        <v>50000</v>
       </c>
       <c r="F179" s="6">
-        <f>F155+50000</f>
-        <v>1350000</v>
+        <f>F155</f>
+        <v>7000000</v>
       </c>
       <c r="G179" s="6">
         <v>6</v>
@@ -4249,7 +4229,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
+      <c r="A180" s="27"/>
       <c r="B180" s="12" t="s">
         <v>14</v>
       </c>
@@ -4261,12 +4241,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E180" s="1">
-        <f>E179+50000</f>
-        <v>420000</v>
+        <f t="shared" ref="E180:F180" si="93">E156</f>
+        <v>50000</v>
       </c>
       <c r="F180" s="1">
-        <f>F179+100000</f>
-        <v>1450000</v>
+        <f t="shared" si="93"/>
+        <v>7000000</v>
       </c>
       <c r="G180" s="1">
         <f>G179+1</f>
@@ -4278,7 +4258,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
+      <c r="A181" s="27"/>
       <c r="B181" s="12" t="s">
         <v>15</v>
       </c>
@@ -4286,28 +4266,28 @@
         <v>39</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f t="shared" ref="D181:D189" si="59">B181</f>
+        <f t="shared" ref="D181:D189" si="94">B181</f>
         <v>1.23.03</v>
       </c>
       <c r="E181" s="1">
-        <f t="shared" ref="E181:E185" si="60">E180+50000</f>
-        <v>470000</v>
+        <f t="shared" ref="E181:F181" si="95">E157</f>
+        <v>50000</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" ref="F181:F185" si="61">F180+100000</f>
-        <v>1550000</v>
+        <f t="shared" si="95"/>
+        <v>7000000</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" ref="G181:G185" si="62">G180+1</f>
+        <f t="shared" ref="G181:G185" si="96">G180+1</f>
         <v>8</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" ref="H181:H185" si="63">H180+2</f>
+        <f t="shared" ref="H181:H185" si="97">H180+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="32"/>
+      <c r="A182" s="27"/>
       <c r="B182" s="12" t="s">
         <v>16</v>
       </c>
@@ -4315,28 +4295,28 @@
         <v>40</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.23.04</v>
       </c>
       <c r="E182" s="1">
-        <f t="shared" si="60"/>
-        <v>520000</v>
+        <f t="shared" ref="E182:F182" si="98">E158</f>
+        <v>50000</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" si="61"/>
-        <v>1650000</v>
+        <f t="shared" si="98"/>
+        <v>7000000</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="96"/>
         <v>9</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="97"/>
         <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="32"/>
+      <c r="A183" s="27"/>
       <c r="B183" s="12" t="s">
         <v>17</v>
       </c>
@@ -4344,28 +4324,28 @@
         <v>41</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.23.05</v>
       </c>
       <c r="E183" s="1">
-        <f t="shared" si="60"/>
-        <v>570000</v>
+        <f t="shared" ref="E183:F183" si="99">E159</f>
+        <v>50000</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="61"/>
-        <v>1750000</v>
+        <f t="shared" si="99"/>
+        <v>7000000</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="96"/>
         <v>10</v>
       </c>
       <c r="H183" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="97"/>
         <v>44</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="32"/>
+      <c r="A184" s="27"/>
       <c r="B184" s="12" t="s">
         <v>18</v>
       </c>
@@ -4373,28 +4353,28 @@
         <v>42</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.23.06</v>
       </c>
       <c r="E184" s="1">
-        <f t="shared" si="60"/>
-        <v>620000</v>
+        <f t="shared" ref="E184:F184" si="100">E160</f>
+        <v>50000</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="61"/>
-        <v>1850000</v>
+        <f t="shared" si="100"/>
+        <v>7000000</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="96"/>
         <v>11</v>
       </c>
       <c r="H184" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="97"/>
         <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="32"/>
+      <c r="A185" s="27"/>
       <c r="B185" s="12" t="s">
         <v>19</v>
       </c>
@@ -4402,28 +4382,28 @@
         <v>43</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.23.07</v>
       </c>
       <c r="E185" s="1">
-        <f t="shared" si="60"/>
-        <v>670000</v>
+        <f t="shared" ref="E185:F185" si="101">E161</f>
+        <v>50000</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="61"/>
-        <v>1950000</v>
+        <f t="shared" si="101"/>
+        <v>7000000</v>
       </c>
       <c r="G185" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="96"/>
         <v>12</v>
       </c>
       <c r="H185" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="97"/>
         <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="32"/>
+      <c r="A186" s="27"/>
       <c r="B186" s="12" t="s">
         <v>12</v>
       </c>
@@ -4431,16 +4411,16 @@
         <v>44</v>
       </c>
       <c r="D186" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.24.01</v>
       </c>
       <c r="E186" s="1">
-        <f>E179</f>
-        <v>370000</v>
+        <f t="shared" ref="E186:F186" si="102">E162</f>
+        <v>50000</v>
       </c>
       <c r="F186" s="1">
-        <f>F179</f>
-        <v>1350000</v>
+        <f t="shared" si="102"/>
+        <v>7000000</v>
       </c>
       <c r="G186" s="1">
         <v>7</v>
@@ -4450,7 +4430,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="32"/>
+      <c r="A187" s="27"/>
       <c r="B187" s="12" t="s">
         <v>20</v>
       </c>
@@ -4458,28 +4438,28 @@
         <v>45</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.24.02</v>
       </c>
       <c r="E187" s="1">
-        <f t="shared" ref="E187:E189" si="64">E186+50000</f>
-        <v>420000</v>
+        <f t="shared" ref="E187:F187" si="103">E163</f>
+        <v>50000</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" ref="F187:F189" si="65">F186+100000</f>
-        <v>1450000</v>
+        <f t="shared" si="103"/>
+        <v>7000000</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" ref="G187:G189" si="66">G186+1</f>
+        <f t="shared" ref="G187:G189" si="104">G186+1</f>
         <v>8</v>
       </c>
       <c r="H187" s="1">
-        <f t="shared" ref="H187:H189" si="67">H186+2</f>
+        <f t="shared" ref="H187:H189" si="105">H186+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
+      <c r="A188" s="27"/>
       <c r="B188" s="12" t="s">
         <v>21</v>
       </c>
@@ -4487,28 +4467,28 @@
         <v>46</v>
       </c>
       <c r="D188" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.24.03</v>
       </c>
       <c r="E188" s="1">
-        <f t="shared" si="64"/>
-        <v>470000</v>
+        <f t="shared" ref="E188:F188" si="106">E164</f>
+        <v>50000</v>
       </c>
       <c r="F188" s="1">
-        <f t="shared" si="65"/>
-        <v>1550000</v>
+        <f t="shared" si="106"/>
+        <v>7000000</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="104"/>
         <v>9</v>
       </c>
       <c r="H188" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="105"/>
         <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="32"/>
+      <c r="A189" s="27"/>
       <c r="B189" s="13" t="s">
         <v>22</v>
       </c>
@@ -4516,23 +4496,23 @@
         <v>47</v>
       </c>
       <c r="D189" s="2" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>1.24.04</v>
       </c>
       <c r="E189" s="2">
-        <f t="shared" si="64"/>
-        <v>520000</v>
+        <f t="shared" ref="E189:F189" si="107">E165</f>
+        <v>50000</v>
       </c>
       <c r="F189" s="2">
-        <f t="shared" si="65"/>
-        <v>1650000</v>
+        <f t="shared" si="107"/>
+        <v>7000000</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="104"/>
         <v>10</v>
       </c>
       <c r="H189" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="105"/>
         <v>44</v>
       </c>
     </row>
@@ -4563,7 +4543,7 @@
       <c r="C194" s="19"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="31" t="s">
+      <c r="A195" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B195" s="7" t="s">
@@ -4572,7 +4552,7 @@
       <c r="C195" s="7"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="31"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="7" t="s">
         <v>97</v>
       </c>
@@ -4586,31 +4566,31 @@
       <c r="B198" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C198" s="23" t="s">
+      <c r="C198" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D198" s="23"/>
-      <c r="E198" s="23"/>
-      <c r="F198" s="23"/>
-      <c r="G198" s="23"/>
-      <c r="H198" s="23"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C199" s="25"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-      <c r="F199" s="26"/>
-      <c r="G199" s="26"/>
-      <c r="H199" s="27"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="25"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="26"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="33"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="17" t="s">
         <v>73</v>
       </c>
@@ -4624,7 +4604,7 @@
       <c r="H200" s="30"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="33"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="8" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4638,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="32" t="s">
+      <c r="A203" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -4672,12 +4652,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E203" s="6">
-        <f>E179+10000</f>
-        <v>380000</v>
+        <f>E179</f>
+        <v>50000</v>
       </c>
       <c r="F203" s="6">
-        <f>F179+50000</f>
-        <v>1400000</v>
+        <f>F179</f>
+        <v>7000000</v>
       </c>
       <c r="G203" s="6">
         <v>6</v>
@@ -4687,7 +4667,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="32"/>
+      <c r="A204" s="27"/>
       <c r="B204" s="12" t="s">
         <v>14</v>
       </c>
@@ -4699,12 +4679,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E204" s="1">
-        <f>E203+50000</f>
-        <v>430000</v>
+        <f t="shared" ref="E204:F204" si="108">E180</f>
+        <v>50000</v>
       </c>
       <c r="F204" s="1">
-        <f>F203+100000</f>
-        <v>1500000</v>
+        <f t="shared" si="108"/>
+        <v>7000000</v>
       </c>
       <c r="G204" s="1">
         <f>G203+1</f>
@@ -4716,7 +4696,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="32"/>
+      <c r="A205" s="27"/>
       <c r="B205" s="12" t="s">
         <v>15</v>
       </c>
@@ -4724,28 +4704,28 @@
         <v>39</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f t="shared" ref="D205:D213" si="68">B205</f>
+        <f t="shared" ref="D205:D213" si="109">B205</f>
         <v>1.23.03</v>
       </c>
       <c r="E205" s="1">
-        <f t="shared" ref="E205:E209" si="69">E204+50000</f>
-        <v>480000</v>
+        <f t="shared" ref="E205:F205" si="110">E181</f>
+        <v>50000</v>
       </c>
       <c r="F205" s="1">
-        <f t="shared" ref="F205:F209" si="70">F204+100000</f>
-        <v>1600000</v>
+        <f t="shared" si="110"/>
+        <v>7000000</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" ref="G205:G209" si="71">G204+1</f>
+        <f t="shared" ref="G205:G209" si="111">G204+1</f>
         <v>8</v>
       </c>
       <c r="H205" s="1">
-        <f t="shared" ref="H205:H209" si="72">H204+2</f>
+        <f t="shared" ref="H205:H209" si="112">H204+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="32"/>
+      <c r="A206" s="27"/>
       <c r="B206" s="12" t="s">
         <v>16</v>
       </c>
@@ -4753,28 +4733,28 @@
         <v>40</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.23.04</v>
       </c>
       <c r="E206" s="1">
-        <f t="shared" si="69"/>
-        <v>530000</v>
+        <f t="shared" ref="E206:F206" si="113">E182</f>
+        <v>50000</v>
       </c>
       <c r="F206" s="1">
-        <f t="shared" si="70"/>
-        <v>1700000</v>
+        <f t="shared" si="113"/>
+        <v>7000000</v>
       </c>
       <c r="G206" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="111"/>
         <v>9</v>
       </c>
       <c r="H206" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="112"/>
         <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="32"/>
+      <c r="A207" s="27"/>
       <c r="B207" s="12" t="s">
         <v>17</v>
       </c>
@@ -4782,28 +4762,28 @@
         <v>41</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.23.05</v>
       </c>
       <c r="E207" s="1">
-        <f t="shared" si="69"/>
-        <v>580000</v>
+        <f t="shared" ref="E207:F207" si="114">E183</f>
+        <v>50000</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="70"/>
-        <v>1800000</v>
+        <f t="shared" si="114"/>
+        <v>7000000</v>
       </c>
       <c r="G207" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="111"/>
         <v>10</v>
       </c>
       <c r="H207" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="112"/>
         <v>44</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="32"/>
+      <c r="A208" s="27"/>
       <c r="B208" s="12" t="s">
         <v>18</v>
       </c>
@@ -4811,28 +4791,28 @@
         <v>42</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.23.06</v>
       </c>
       <c r="E208" s="1">
-        <f t="shared" si="69"/>
-        <v>630000</v>
+        <f t="shared" ref="E208:F208" si="115">E184</f>
+        <v>50000</v>
       </c>
       <c r="F208" s="1">
-        <f t="shared" si="70"/>
-        <v>1900000</v>
+        <f t="shared" si="115"/>
+        <v>7000000</v>
       </c>
       <c r="G208" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="111"/>
         <v>11</v>
       </c>
       <c r="H208" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="112"/>
         <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="32"/>
+      <c r="A209" s="27"/>
       <c r="B209" s="12" t="s">
         <v>19</v>
       </c>
@@ -4840,28 +4820,28 @@
         <v>43</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.23.07</v>
       </c>
       <c r="E209" s="1">
-        <f t="shared" si="69"/>
-        <v>680000</v>
+        <f t="shared" ref="E209:F209" si="116">E185</f>
+        <v>50000</v>
       </c>
       <c r="F209" s="1">
-        <f t="shared" si="70"/>
-        <v>2000000</v>
+        <f t="shared" si="116"/>
+        <v>7000000</v>
       </c>
       <c r="G209" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="111"/>
         <v>12</v>
       </c>
       <c r="H209" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="112"/>
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="32"/>
+      <c r="A210" s="27"/>
       <c r="B210" s="12" t="s">
         <v>12</v>
       </c>
@@ -4869,16 +4849,16 @@
         <v>44</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.24.01</v>
       </c>
       <c r="E210" s="1">
-        <f>E203</f>
-        <v>380000</v>
+        <f t="shared" ref="E210:F210" si="117">E186</f>
+        <v>50000</v>
       </c>
       <c r="F210" s="1">
-        <f>F203</f>
-        <v>1400000</v>
+        <f t="shared" si="117"/>
+        <v>7000000</v>
       </c>
       <c r="G210" s="1">
         <v>7</v>
@@ -4888,7 +4868,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="32"/>
+      <c r="A211" s="27"/>
       <c r="B211" s="12" t="s">
         <v>20</v>
       </c>
@@ -4896,28 +4876,28 @@
         <v>45</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.24.02</v>
       </c>
       <c r="E211" s="1">
-        <f t="shared" ref="E211:E213" si="73">E210+50000</f>
-        <v>430000</v>
+        <f t="shared" ref="E211:F211" si="118">E187</f>
+        <v>50000</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" ref="F211:F213" si="74">F210+100000</f>
-        <v>1500000</v>
+        <f t="shared" si="118"/>
+        <v>7000000</v>
       </c>
       <c r="G211" s="1">
-        <f t="shared" ref="G211:G213" si="75">G210+1</f>
+        <f t="shared" ref="G211:G213" si="119">G210+1</f>
         <v>8</v>
       </c>
       <c r="H211" s="1">
-        <f t="shared" ref="H211:H213" si="76">H210+2</f>
+        <f t="shared" ref="H211:H213" si="120">H210+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="32"/>
+      <c r="A212" s="27"/>
       <c r="B212" s="12" t="s">
         <v>21</v>
       </c>
@@ -4925,28 +4905,28 @@
         <v>46</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.24.03</v>
       </c>
       <c r="E212" s="1">
-        <f t="shared" si="73"/>
-        <v>480000</v>
+        <f t="shared" ref="E212:F212" si="121">E188</f>
+        <v>50000</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="74"/>
-        <v>1600000</v>
+        <f t="shared" si="121"/>
+        <v>7000000</v>
       </c>
       <c r="G212" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="119"/>
         <v>9</v>
       </c>
       <c r="H212" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="120"/>
         <v>42</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="32"/>
+      <c r="A213" s="27"/>
       <c r="B213" s="13" t="s">
         <v>22</v>
       </c>
@@ -4954,23 +4934,23 @@
         <v>47</v>
       </c>
       <c r="D213" s="2" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>1.24.04</v>
       </c>
       <c r="E213" s="2">
-        <f t="shared" si="73"/>
-        <v>530000</v>
+        <f t="shared" ref="E213:F213" si="122">E189</f>
+        <v>50000</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" si="74"/>
-        <v>1700000</v>
+        <f t="shared" si="122"/>
+        <v>7000000</v>
       </c>
       <c r="G213" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="H213" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="120"/>
         <v>44</v>
       </c>
     </row>
@@ -5001,7 +4981,7 @@
       <c r="C218" s="19"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="31" t="s">
+      <c r="A219" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B219" s="7" t="s">
@@ -5010,7 +4990,7 @@
       <c r="C219" s="7"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="31"/>
+      <c r="A220" s="32"/>
       <c r="B220" s="7" t="s">
         <v>99</v>
       </c>
@@ -5024,31 +5004,31 @@
       <c r="B222" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D222" s="23"/>
-      <c r="E222" s="23"/>
-      <c r="F222" s="23"/>
-      <c r="G222" s="23"/>
-      <c r="H222" s="23"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="33" t="s">
+      <c r="A223" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B223" s="24" t="s">
+      <c r="B223" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C223" s="25"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="26"/>
-      <c r="G223" s="26"/>
-      <c r="H223" s="27"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="25"/>
+      <c r="G223" s="25"/>
+      <c r="H223" s="26"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="17" t="s">
         <v>73</v>
       </c>
@@ -5062,7 +5042,7 @@
       <c r="H224" s="30"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="33"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="8" t="s">
         <v>7</v>
       </c>
@@ -5096,7 +5076,7 @@
       <c r="H226" s="4"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -5110,12 +5090,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E227" s="6">
-        <f>E203+10000</f>
-        <v>390000</v>
+        <f>E203</f>
+        <v>50000</v>
       </c>
       <c r="F227" s="6">
-        <f>F203+50000</f>
-        <v>1450000</v>
+        <f>F203</f>
+        <v>7000000</v>
       </c>
       <c r="G227" s="6">
         <v>6</v>
@@ -5125,7 +5105,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="32"/>
+      <c r="A228" s="27"/>
       <c r="B228" s="12" t="s">
         <v>14</v>
       </c>
@@ -5137,12 +5117,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E228" s="1">
-        <f>E227+50000</f>
-        <v>440000</v>
+        <f t="shared" ref="E228:F228" si="123">E204</f>
+        <v>50000</v>
       </c>
       <c r="F228" s="1">
-        <f>F227+100000</f>
-        <v>1550000</v>
+        <f t="shared" si="123"/>
+        <v>7000000</v>
       </c>
       <c r="G228" s="1">
         <f>G227+1</f>
@@ -5154,7 +5134,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="32"/>
+      <c r="A229" s="27"/>
       <c r="B229" s="12" t="s">
         <v>15</v>
       </c>
@@ -5162,28 +5142,28 @@
         <v>39</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f t="shared" ref="D229:D237" si="77">B229</f>
+        <f t="shared" ref="D229:D237" si="124">B229</f>
         <v>1.23.03</v>
       </c>
       <c r="E229" s="1">
-        <f t="shared" ref="E229:E233" si="78">E228+50000</f>
-        <v>490000</v>
+        <f t="shared" ref="E229:F229" si="125">E205</f>
+        <v>50000</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" ref="F229:F233" si="79">F228+100000</f>
-        <v>1650000</v>
+        <f t="shared" si="125"/>
+        <v>7000000</v>
       </c>
       <c r="G229" s="1">
-        <f t="shared" ref="G229:G233" si="80">G228+1</f>
+        <f t="shared" ref="G229:G233" si="126">G228+1</f>
         <v>8</v>
       </c>
       <c r="H229" s="1">
-        <f t="shared" ref="H229:H233" si="81">H228+2</f>
+        <f t="shared" ref="H229:H233" si="127">H228+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="32"/>
+      <c r="A230" s="27"/>
       <c r="B230" s="12" t="s">
         <v>16</v>
       </c>
@@ -5191,28 +5171,28 @@
         <v>40</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.23.04</v>
       </c>
       <c r="E230" s="1">
-        <f t="shared" si="78"/>
-        <v>540000</v>
+        <f t="shared" ref="E230:F230" si="128">E206</f>
+        <v>50000</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="79"/>
-        <v>1750000</v>
+        <f t="shared" si="128"/>
+        <v>7000000</v>
       </c>
       <c r="G230" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="126"/>
         <v>9</v>
       </c>
       <c r="H230" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="32"/>
+      <c r="A231" s="27"/>
       <c r="B231" s="12" t="s">
         <v>17</v>
       </c>
@@ -5220,28 +5200,28 @@
         <v>41</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.23.05</v>
       </c>
       <c r="E231" s="1">
-        <f t="shared" si="78"/>
-        <v>590000</v>
+        <f t="shared" ref="E231:F231" si="129">E207</f>
+        <v>50000</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="79"/>
-        <v>1850000</v>
+        <f t="shared" si="129"/>
+        <v>7000000</v>
       </c>
       <c r="G231" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="126"/>
         <v>10</v>
       </c>
       <c r="H231" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>44</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="32"/>
+      <c r="A232" s="27"/>
       <c r="B232" s="12" t="s">
         <v>18</v>
       </c>
@@ -5249,28 +5229,28 @@
         <v>42</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.23.06</v>
       </c>
       <c r="E232" s="1">
-        <f t="shared" si="78"/>
-        <v>640000</v>
+        <f t="shared" ref="E232:F232" si="130">E208</f>
+        <v>50000</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="79"/>
-        <v>1950000</v>
+        <f t="shared" si="130"/>
+        <v>7000000</v>
       </c>
       <c r="G232" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="126"/>
         <v>11</v>
       </c>
       <c r="H232" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="32"/>
+      <c r="A233" s="27"/>
       <c r="B233" s="12" t="s">
         <v>19</v>
       </c>
@@ -5278,28 +5258,28 @@
         <v>43</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.23.07</v>
       </c>
       <c r="E233" s="1">
-        <f t="shared" si="78"/>
-        <v>690000</v>
+        <f t="shared" ref="E233:F233" si="131">E209</f>
+        <v>50000</v>
       </c>
       <c r="F233" s="1">
-        <f t="shared" si="79"/>
-        <v>2050000</v>
+        <f t="shared" si="131"/>
+        <v>7000000</v>
       </c>
       <c r="G233" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="126"/>
         <v>12</v>
       </c>
       <c r="H233" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="127"/>
         <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="32"/>
+      <c r="A234" s="27"/>
       <c r="B234" s="12" t="s">
         <v>12</v>
       </c>
@@ -5307,16 +5287,16 @@
         <v>44</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.24.01</v>
       </c>
       <c r="E234" s="1">
-        <f>E227</f>
-        <v>390000</v>
+        <f t="shared" ref="E234:F234" si="132">E210</f>
+        <v>50000</v>
       </c>
       <c r="F234" s="1">
-        <f>F227</f>
-        <v>1450000</v>
+        <f t="shared" si="132"/>
+        <v>7000000</v>
       </c>
       <c r="G234" s="1">
         <v>7</v>
@@ -5326,7 +5306,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="32"/>
+      <c r="A235" s="27"/>
       <c r="B235" s="12" t="s">
         <v>20</v>
       </c>
@@ -5334,28 +5314,28 @@
         <v>45</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.24.02</v>
       </c>
       <c r="E235" s="1">
-        <f t="shared" ref="E235:E237" si="82">E234+50000</f>
-        <v>440000</v>
+        <f t="shared" ref="E235:F235" si="133">E211</f>
+        <v>50000</v>
       </c>
       <c r="F235" s="1">
-        <f t="shared" ref="F235:F237" si="83">F234+100000</f>
-        <v>1550000</v>
+        <f t="shared" si="133"/>
+        <v>7000000</v>
       </c>
       <c r="G235" s="1">
-        <f t="shared" ref="G235:G237" si="84">G234+1</f>
+        <f t="shared" ref="G235:G237" si="134">G234+1</f>
         <v>8</v>
       </c>
       <c r="H235" s="1">
-        <f t="shared" ref="H235:H237" si="85">H234+2</f>
+        <f t="shared" ref="H235:H237" si="135">H234+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="32"/>
+      <c r="A236" s="27"/>
       <c r="B236" s="12" t="s">
         <v>21</v>
       </c>
@@ -5363,28 +5343,28 @@
         <v>46</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.24.03</v>
       </c>
       <c r="E236" s="1">
-        <f t="shared" si="82"/>
-        <v>490000</v>
+        <f t="shared" ref="E236:F236" si="136">E212</f>
+        <v>50000</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="83"/>
-        <v>1650000</v>
+        <f t="shared" si="136"/>
+        <v>7000000</v>
       </c>
       <c r="G236" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="134"/>
         <v>9</v>
       </c>
       <c r="H236" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="135"/>
         <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="32"/>
+      <c r="A237" s="27"/>
       <c r="B237" s="13" t="s">
         <v>22</v>
       </c>
@@ -5392,23 +5372,23 @@
         <v>47</v>
       </c>
       <c r="D237" s="2" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="124"/>
         <v>1.24.04</v>
       </c>
       <c r="E237" s="2">
-        <f t="shared" si="82"/>
-        <v>540000</v>
+        <f t="shared" ref="E237:F237" si="137">E213</f>
+        <v>50000</v>
       </c>
       <c r="F237" s="2">
-        <f t="shared" si="83"/>
-        <v>1750000</v>
+        <f t="shared" si="137"/>
+        <v>7000000</v>
       </c>
       <c r="G237" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="134"/>
         <v>10</v>
       </c>
       <c r="H237" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="135"/>
         <v>44</v>
       </c>
     </row>
@@ -5439,7 +5419,7 @@
       <c r="C242" s="19"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="31" t="s">
+      <c r="A243" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B243" s="7" t="s">
@@ -5448,7 +5428,7 @@
       <c r="C243" s="7"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="31"/>
+      <c r="A244" s="32"/>
       <c r="B244" s="7" t="s">
         <v>101</v>
       </c>
@@ -5462,31 +5442,31 @@
       <c r="B246" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C246" s="23" t="s">
+      <c r="C246" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23"/>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="33"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="33" t="s">
+      <c r="A247" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B247" s="24" t="s">
+      <c r="B247" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C247" s="25"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26"/>
-      <c r="G247" s="26"/>
-      <c r="H247" s="27"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="25"/>
+      <c r="E247" s="25"/>
+      <c r="F247" s="25"/>
+      <c r="G247" s="25"/>
+      <c r="H247" s="26"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="33"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="17" t="s">
         <v>73</v>
       </c>
@@ -5500,7 +5480,7 @@
       <c r="H248" s="30"/>
     </row>
     <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="33"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="8" t="s">
         <v>7</v>
       </c>
@@ -5534,7 +5514,7 @@
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="32" t="s">
+      <c r="A251" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="11" t="s">
@@ -5548,12 +5528,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E251" s="6">
-        <f>E227+10000</f>
-        <v>400000</v>
+        <f>E227</f>
+        <v>50000</v>
       </c>
       <c r="F251" s="6">
-        <f>F227+50000</f>
-        <v>1500000</v>
+        <f>F227</f>
+        <v>7000000</v>
       </c>
       <c r="G251" s="6">
         <v>6</v>
@@ -5563,7 +5543,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="32"/>
+      <c r="A252" s="27"/>
       <c r="B252" s="12" t="s">
         <v>14</v>
       </c>
@@ -5575,12 +5555,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E252" s="1">
-        <f>E251+50000</f>
-        <v>450000</v>
+        <f t="shared" ref="E252:F252" si="138">E228</f>
+        <v>50000</v>
       </c>
       <c r="F252" s="1">
-        <f>F251+100000</f>
-        <v>1600000</v>
+        <f t="shared" si="138"/>
+        <v>7000000</v>
       </c>
       <c r="G252" s="1">
         <f>G251+1</f>
@@ -5592,7 +5572,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="32"/>
+      <c r="A253" s="27"/>
       <c r="B253" s="12" t="s">
         <v>15</v>
       </c>
@@ -5600,28 +5580,28 @@
         <v>39</v>
       </c>
       <c r="D253" s="1" t="str">
-        <f t="shared" ref="D253:D261" si="86">B253</f>
+        <f t="shared" ref="D253:D261" si="139">B253</f>
         <v>1.23.03</v>
       </c>
       <c r="E253" s="1">
-        <f t="shared" ref="E253:E257" si="87">E252+50000</f>
-        <v>500000</v>
+        <f t="shared" ref="E253:F253" si="140">E229</f>
+        <v>50000</v>
       </c>
       <c r="F253" s="1">
-        <f t="shared" ref="F253:F257" si="88">F252+100000</f>
-        <v>1700000</v>
+        <f t="shared" si="140"/>
+        <v>7000000</v>
       </c>
       <c r="G253" s="1">
-        <f t="shared" ref="G253:G257" si="89">G252+1</f>
+        <f t="shared" ref="G253:G257" si="141">G252+1</f>
         <v>8</v>
       </c>
       <c r="H253" s="1">
-        <f t="shared" ref="H253:H257" si="90">H252+2</f>
+        <f t="shared" ref="H253:H257" si="142">H252+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="32"/>
+      <c r="A254" s="27"/>
       <c r="B254" s="12" t="s">
         <v>16</v>
       </c>
@@ -5629,28 +5609,28 @@
         <v>40</v>
       </c>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.23.04</v>
       </c>
       <c r="E254" s="1">
-        <f t="shared" si="87"/>
-        <v>550000</v>
+        <f t="shared" ref="E254:F254" si="143">E230</f>
+        <v>50000</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" si="88"/>
-        <v>1800000</v>
+        <f t="shared" si="143"/>
+        <v>7000000</v>
       </c>
       <c r="G254" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="141"/>
         <v>9</v>
       </c>
       <c r="H254" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>42</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="32"/>
+      <c r="A255" s="27"/>
       <c r="B255" s="12" t="s">
         <v>17</v>
       </c>
@@ -5658,28 +5638,28 @@
         <v>41</v>
       </c>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.23.05</v>
       </c>
       <c r="E255" s="1">
-        <f t="shared" si="87"/>
-        <v>600000</v>
+        <f t="shared" ref="E255:F255" si="144">E231</f>
+        <v>50000</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="88"/>
-        <v>1900000</v>
+        <f t="shared" si="144"/>
+        <v>7000000</v>
       </c>
       <c r="G255" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="141"/>
         <v>10</v>
       </c>
       <c r="H255" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="32"/>
+      <c r="A256" s="27"/>
       <c r="B256" s="12" t="s">
         <v>18</v>
       </c>
@@ -5687,28 +5667,28 @@
         <v>42</v>
       </c>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.23.06</v>
       </c>
       <c r="E256" s="1">
-        <f t="shared" si="87"/>
-        <v>650000</v>
+        <f t="shared" ref="E256:F256" si="145">E232</f>
+        <v>50000</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="88"/>
-        <v>2000000</v>
+        <f t="shared" si="145"/>
+        <v>7000000</v>
       </c>
       <c r="G256" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="141"/>
         <v>11</v>
       </c>
       <c r="H256" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>46</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="32"/>
+      <c r="A257" s="27"/>
       <c r="B257" s="12" t="s">
         <v>19</v>
       </c>
@@ -5716,28 +5696,28 @@
         <v>43</v>
       </c>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.23.07</v>
       </c>
       <c r="E257" s="1">
-        <f t="shared" si="87"/>
-        <v>700000</v>
+        <f t="shared" ref="E257:F257" si="146">E233</f>
+        <v>50000</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="88"/>
-        <v>2100000</v>
+        <f t="shared" si="146"/>
+        <v>7000000</v>
       </c>
       <c r="G257" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="141"/>
         <v>12</v>
       </c>
       <c r="H257" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>48</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="32"/>
+      <c r="A258" s="27"/>
       <c r="B258" s="12" t="s">
         <v>12</v>
       </c>
@@ -5745,16 +5725,16 @@
         <v>44</v>
       </c>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.24.01</v>
       </c>
       <c r="E258" s="1">
-        <f>E251</f>
-        <v>400000</v>
+        <f t="shared" ref="E258:F258" si="147">E234</f>
+        <v>50000</v>
       </c>
       <c r="F258" s="1">
-        <f>F251</f>
-        <v>1500000</v>
+        <f t="shared" si="147"/>
+        <v>7000000</v>
       </c>
       <c r="G258" s="1">
         <v>7</v>
@@ -5764,7 +5744,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="32"/>
+      <c r="A259" s="27"/>
       <c r="B259" s="12" t="s">
         <v>20</v>
       </c>
@@ -5772,28 +5752,28 @@
         <v>45</v>
       </c>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.24.02</v>
       </c>
       <c r="E259" s="1">
-        <f t="shared" ref="E259:E261" si="91">E258+50000</f>
-        <v>450000</v>
+        <f t="shared" ref="E259:F259" si="148">E235</f>
+        <v>50000</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" ref="F259:F261" si="92">F258+100000</f>
-        <v>1600000</v>
+        <f t="shared" si="148"/>
+        <v>7000000</v>
       </c>
       <c r="G259" s="1">
-        <f t="shared" ref="G259:G261" si="93">G258+1</f>
+        <f t="shared" ref="G259:G261" si="149">G258+1</f>
         <v>8</v>
       </c>
       <c r="H259" s="1">
-        <f t="shared" ref="H259:H261" si="94">H258+2</f>
+        <f t="shared" ref="H259:H261" si="150">H258+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="32"/>
+      <c r="A260" s="27"/>
       <c r="B260" s="12" t="s">
         <v>21</v>
       </c>
@@ -5801,28 +5781,28 @@
         <v>46</v>
       </c>
       <c r="D260" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.24.03</v>
       </c>
       <c r="E260" s="1">
-        <f t="shared" si="91"/>
-        <v>500000</v>
+        <f t="shared" ref="E260:F260" si="151">E236</f>
+        <v>50000</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="92"/>
-        <v>1700000</v>
+        <f t="shared" si="151"/>
+        <v>7000000</v>
       </c>
       <c r="G260" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>9</v>
       </c>
       <c r="H260" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="150"/>
         <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="32"/>
+      <c r="A261" s="27"/>
       <c r="B261" s="13" t="s">
         <v>22</v>
       </c>
@@ -5830,23 +5810,23 @@
         <v>47</v>
       </c>
       <c r="D261" s="2" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="139"/>
         <v>1.24.04</v>
       </c>
       <c r="E261" s="2">
-        <f t="shared" si="91"/>
-        <v>550000</v>
+        <f t="shared" ref="E261:F261" si="152">E237</f>
+        <v>50000</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" si="92"/>
-        <v>1800000</v>
+        <f t="shared" si="152"/>
+        <v>7000000</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>10</v>
       </c>
       <c r="H261" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="150"/>
         <v>44</v>
       </c>
     </row>
@@ -5877,7 +5857,7 @@
       <c r="C266" s="19"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="31" t="s">
+      <c r="A267" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B267" s="7" t="s">
@@ -5886,7 +5866,7 @@
       <c r="C267" s="7"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="31"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="7" t="s">
         <v>103</v>
       </c>
@@ -5900,31 +5880,31 @@
       <c r="B270" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C270" s="23" t="s">
+      <c r="C270" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D270" s="23"/>
-      <c r="E270" s="23"/>
-      <c r="F270" s="23"/>
-      <c r="G270" s="23"/>
-      <c r="H270" s="23"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="33"/>
+      <c r="F270" s="33"/>
+      <c r="G270" s="33"/>
+      <c r="H270" s="33"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="33" t="s">
+      <c r="A271" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B271" s="24" t="s">
+      <c r="B271" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C271" s="25"/>
-      <c r="D271" s="26"/>
-      <c r="E271" s="26"/>
-      <c r="F271" s="26"/>
-      <c r="G271" s="26"/>
-      <c r="H271" s="27"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="25"/>
+      <c r="E271" s="25"/>
+      <c r="F271" s="25"/>
+      <c r="G271" s="25"/>
+      <c r="H271" s="26"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="33"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="17" t="s">
         <v>73</v>
       </c>
@@ -5938,7 +5918,7 @@
       <c r="H272" s="30"/>
     </row>
     <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="33"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="8" t="s">
         <v>7</v>
       </c>
@@ -5972,7 +5952,7 @@
       <c r="H274" s="4"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="32" t="s">
+      <c r="A275" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B275" s="11" t="s">
@@ -5986,12 +5966,12 @@
         <v>1.23.01</v>
       </c>
       <c r="E275" s="6">
-        <f>E251+10000</f>
-        <v>410000</v>
+        <f>E251</f>
+        <v>50000</v>
       </c>
       <c r="F275" s="6">
-        <f>F251+50000</f>
-        <v>1550000</v>
+        <f>F251</f>
+        <v>7000000</v>
       </c>
       <c r="G275" s="6">
         <v>6</v>
@@ -6001,7 +5981,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="32"/>
+      <c r="A276" s="27"/>
       <c r="B276" s="12" t="s">
         <v>14</v>
       </c>
@@ -6013,12 +5993,12 @@
         <v>1.23.02</v>
       </c>
       <c r="E276" s="1">
-        <f>E275+50000</f>
-        <v>460000</v>
+        <f t="shared" ref="E276:F276" si="153">E252</f>
+        <v>50000</v>
       </c>
       <c r="F276" s="1">
-        <f>F275+100000</f>
-        <v>1650000</v>
+        <f t="shared" si="153"/>
+        <v>7000000</v>
       </c>
       <c r="G276" s="1">
         <f>G275+1</f>
@@ -6030,7 +6010,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="32"/>
+      <c r="A277" s="27"/>
       <c r="B277" s="12" t="s">
         <v>15</v>
       </c>
@@ -6038,28 +6018,28 @@
         <v>39</v>
       </c>
       <c r="D277" s="1" t="str">
-        <f t="shared" ref="D277:D285" si="95">B277</f>
+        <f t="shared" ref="D277:D285" si="154">B277</f>
         <v>1.23.03</v>
       </c>
       <c r="E277" s="1">
-        <f t="shared" ref="E277:E281" si="96">E276+50000</f>
-        <v>510000</v>
+        <f t="shared" ref="E277:F277" si="155">E253</f>
+        <v>50000</v>
       </c>
       <c r="F277" s="1">
-        <f t="shared" ref="F277:F281" si="97">F276+100000</f>
-        <v>1750000</v>
+        <f t="shared" si="155"/>
+        <v>7000000</v>
       </c>
       <c r="G277" s="1">
-        <f t="shared" ref="G277:G281" si="98">G276+1</f>
+        <f t="shared" ref="G277:G281" si="156">G276+1</f>
         <v>8</v>
       </c>
       <c r="H277" s="1">
-        <f t="shared" ref="H277:H281" si="99">H276+2</f>
+        <f t="shared" ref="H277:H281" si="157">H276+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="32"/>
+      <c r="A278" s="27"/>
       <c r="B278" s="12" t="s">
         <v>16</v>
       </c>
@@ -6067,28 +6047,28 @@
         <v>40</v>
       </c>
       <c r="D278" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.23.04</v>
       </c>
       <c r="E278" s="1">
-        <f t="shared" si="96"/>
-        <v>560000</v>
+        <f t="shared" ref="E278:F278" si="158">E254</f>
+        <v>50000</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="97"/>
-        <v>1850000</v>
+        <f t="shared" si="158"/>
+        <v>7000000</v>
       </c>
       <c r="G278" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="156"/>
         <v>9</v>
       </c>
       <c r="H278" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="32"/>
+      <c r="A279" s="27"/>
       <c r="B279" s="12" t="s">
         <v>17</v>
       </c>
@@ -6096,28 +6076,28 @@
         <v>41</v>
       </c>
       <c r="D279" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.23.05</v>
       </c>
       <c r="E279" s="1">
-        <f t="shared" si="96"/>
-        <v>610000</v>
+        <f t="shared" ref="E279:F279" si="159">E255</f>
+        <v>50000</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="97"/>
-        <v>1950000</v>
+        <f t="shared" si="159"/>
+        <v>7000000</v>
       </c>
       <c r="G279" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="156"/>
         <v>10</v>
       </c>
       <c r="H279" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>44</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="32"/>
+      <c r="A280" s="27"/>
       <c r="B280" s="12" t="s">
         <v>18</v>
       </c>
@@ -6125,28 +6105,28 @@
         <v>42</v>
       </c>
       <c r="D280" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.23.06</v>
       </c>
       <c r="E280" s="1">
-        <f t="shared" si="96"/>
-        <v>660000</v>
+        <f t="shared" ref="E280:F280" si="160">E256</f>
+        <v>50000</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="97"/>
-        <v>2050000</v>
+        <f t="shared" si="160"/>
+        <v>7000000</v>
       </c>
       <c r="G280" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="156"/>
         <v>11</v>
       </c>
       <c r="H280" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>46</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="32"/>
+      <c r="A281" s="27"/>
       <c r="B281" s="12" t="s">
         <v>19</v>
       </c>
@@ -6154,28 +6134,28 @@
         <v>43</v>
       </c>
       <c r="D281" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.23.07</v>
       </c>
       <c r="E281" s="1">
-        <f t="shared" si="96"/>
-        <v>710000</v>
+        <f t="shared" ref="E281:F281" si="161">E257</f>
+        <v>50000</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="97"/>
-        <v>2150000</v>
+        <f t="shared" si="161"/>
+        <v>7000000</v>
       </c>
       <c r="G281" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="156"/>
         <v>12</v>
       </c>
       <c r="H281" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="157"/>
         <v>48</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="32"/>
+      <c r="A282" s="27"/>
       <c r="B282" s="12" t="s">
         <v>12</v>
       </c>
@@ -6183,16 +6163,16 @@
         <v>44</v>
       </c>
       <c r="D282" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.24.01</v>
       </c>
       <c r="E282" s="1">
-        <f>E275</f>
-        <v>410000</v>
+        <f t="shared" ref="E282:F282" si="162">E258</f>
+        <v>50000</v>
       </c>
       <c r="F282" s="1">
-        <f>F275</f>
-        <v>1550000</v>
+        <f t="shared" si="162"/>
+        <v>7000000</v>
       </c>
       <c r="G282" s="1">
         <v>7</v>
@@ -6202,7 +6182,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="32"/>
+      <c r="A283" s="27"/>
       <c r="B283" s="12" t="s">
         <v>20</v>
       </c>
@@ -6210,28 +6190,28 @@
         <v>45</v>
       </c>
       <c r="D283" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.24.02</v>
       </c>
       <c r="E283" s="1">
-        <f t="shared" ref="E283:E285" si="100">E282+50000</f>
-        <v>460000</v>
+        <f t="shared" ref="E283:F283" si="163">E259</f>
+        <v>50000</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" ref="F283:F285" si="101">F282+100000</f>
-        <v>1650000</v>
+        <f t="shared" si="163"/>
+        <v>7000000</v>
       </c>
       <c r="G283" s="1">
-        <f t="shared" ref="G283:G285" si="102">G282+1</f>
+        <f t="shared" ref="G283:G285" si="164">G282+1</f>
         <v>8</v>
       </c>
       <c r="H283" s="1">
-        <f t="shared" ref="H283:H285" si="103">H282+2</f>
+        <f t="shared" ref="H283:H285" si="165">H282+2</f>
         <v>40</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="32"/>
+      <c r="A284" s="27"/>
       <c r="B284" s="12" t="s">
         <v>21</v>
       </c>
@@ -6239,28 +6219,28 @@
         <v>46</v>
       </c>
       <c r="D284" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.24.03</v>
       </c>
       <c r="E284" s="1">
-        <f t="shared" si="100"/>
-        <v>510000</v>
+        <f t="shared" ref="E284:F284" si="166">E260</f>
+        <v>50000</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="101"/>
-        <v>1750000</v>
+        <f t="shared" si="166"/>
+        <v>7000000</v>
       </c>
       <c r="G284" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="164"/>
         <v>9</v>
       </c>
       <c r="H284" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="165"/>
         <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="32"/>
+      <c r="A285" s="27"/>
       <c r="B285" s="13" t="s">
         <v>22</v>
       </c>
@@ -6268,23 +6248,23 @@
         <v>47</v>
       </c>
       <c r="D285" s="2" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="154"/>
         <v>1.24.04</v>
       </c>
       <c r="E285" s="2">
-        <f t="shared" si="100"/>
-        <v>560000</v>
+        <f t="shared" ref="E285:F285" si="167">E261</f>
+        <v>50000</v>
       </c>
       <c r="F285" s="2">
-        <f t="shared" si="101"/>
-        <v>1850000</v>
+        <f t="shared" si="167"/>
+        <v>7000000</v>
       </c>
       <c r="G285" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="164"/>
         <v>10</v>
       </c>
       <c r="H285" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="165"/>
         <v>44</v>
       </c>
     </row>
@@ -6295,28 +6275,43 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="A107:A117"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="A131:A141"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="B271:H271"/>
-    <mergeCell ref="A275:A285"/>
-    <mergeCell ref="C248:H248"/>
-    <mergeCell ref="C272:H272"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="C198:H198"/>
+    <mergeCell ref="C222:H222"/>
+    <mergeCell ref="C246:H246"/>
+    <mergeCell ref="C270:H270"/>
+    <mergeCell ref="B223:H223"/>
+    <mergeCell ref="B247:H247"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="C176:H176"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="A251:A261"/>
+    <mergeCell ref="A203:A213"/>
+    <mergeCell ref="A227:A237"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A199:A201"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A51:A52"/>
@@ -6330,43 +6325,28 @@
     <mergeCell ref="A11:A21"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="A251:A261"/>
-    <mergeCell ref="A203:A213"/>
-    <mergeCell ref="A227:A237"/>
-    <mergeCell ref="A223:A225"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="C198:H198"/>
-    <mergeCell ref="C222:H222"/>
-    <mergeCell ref="C246:H246"/>
-    <mergeCell ref="C270:H270"/>
-    <mergeCell ref="B223:H223"/>
-    <mergeCell ref="B247:H247"/>
-    <mergeCell ref="C224:H224"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="B271:H271"/>
+    <mergeCell ref="A275:A285"/>
+    <mergeCell ref="C248:H248"/>
+    <mergeCell ref="C272:H272"/>
+    <mergeCell ref="A271:A273"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A131:A141"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="A107:A117"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="C126:H126"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6376,10 +6356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB98C2F-4C1E-4FA0-A746-61A323626D7D}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6392,7 +6372,7 @@
     <col min="7" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -6401,7 +6381,7 @@
       </c>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -6410,8 +6390,8 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -6419,46 +6399,46 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
       <c r="B4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
       <c r="B8" s="17" t="s">
         <v>73</v>
       </c>
@@ -6471,8 +6451,8 @@
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
@@ -6495,7 +6475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6505,8 +6485,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6519,10 +6499,10 @@
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F11" s="6">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="G11" s="6">
         <v>120</v>
@@ -6532,8 +6512,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
@@ -6544,10 +6524,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="1">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="F12" s="1">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="G12" s="1">
         <v>60</v>
@@ -6556,22 +6536,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="1">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="F13" s="1">
-        <v>15000000</v>
+        <v>50000000</v>
       </c>
       <c r="G13" s="1">
         <v>120</v>
@@ -6580,22 +6560,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="1">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
       <c r="F14" s="1">
-        <v>17000000</v>
+        <v>50000000</v>
       </c>
       <c r="G14" s="1">
         <v>120</v>
@@ -6603,9 +6583,10 @@
       <c r="H14" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
@@ -6616,10 +6597,10 @@
         <v>56</v>
       </c>
       <c r="E15" s="1">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F15" s="1">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="G15" s="1">
         <v>60</v>
@@ -6628,8 +6609,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
@@ -6640,10 +6621,10 @@
         <v>58</v>
       </c>
       <c r="E16" s="1">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="F16" s="1">
-        <v>18000000</v>
+        <v>30000000</v>
       </c>
       <c r="G16" s="1">
         <v>120</v>
@@ -6653,7 +6634,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
@@ -6677,7 +6658,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
@@ -6691,7 +6672,7 @@
         <v>3500000</v>
       </c>
       <c r="F18" s="1">
-        <v>18000000</v>
+        <v>100000000</v>
       </c>
       <c r="G18" s="1">
         <v>120</v>
@@ -6701,7 +6682,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
@@ -6715,7 +6696,7 @@
         <v>2000000</v>
       </c>
       <c r="F19" s="1">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="G19" s="1">
         <v>85</v>
@@ -6725,7 +6706,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="22" t="s">
         <v>66</v>
       </c>
@@ -6736,10 +6717,10 @@
         <v>66</v>
       </c>
       <c r="E20" s="1">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="F20" s="1">
-        <v>15000000</v>
+        <v>50000000</v>
       </c>
       <c r="G20" s="1">
         <v>85</v>
@@ -6749,7 +6730,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="22" t="s">
         <v>68</v>
       </c>
@@ -6760,10 +6741,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="1">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="F21" s="1">
-        <v>17000000</v>
+        <v>50000000</v>
       </c>
       <c r="G21" s="1">
         <v>120</v>
@@ -6773,7 +6754,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
@@ -6784,10 +6765,10 @@
         <v>70</v>
       </c>
       <c r="E22" s="2">
-        <v>2700000</v>
+        <v>100000</v>
       </c>
       <c r="F22" s="2">
-        <v>17000000</v>
+        <v>30000000</v>
       </c>
       <c r="G22" s="2">
         <v>85</v>
@@ -6823,7 +6804,7 @@
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -6832,7 +6813,7 @@
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="7" t="s">
         <v>91</v>
       </c>
@@ -6846,31 +6827,31 @@
       <c r="B31" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="17" t="s">
         <v>73</v>
       </c>
@@ -6884,7 +6865,7 @@
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
@@ -6918,7 +6899,7 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -6931,12 +6912,12 @@
         <v>48</v>
       </c>
       <c r="E36" s="6">
-        <f>E11+100000</f>
-        <v>2100000</v>
+        <f>E11</f>
+        <v>1000000</v>
       </c>
       <c r="F36" s="6">
-        <f>F11+500000</f>
-        <v>20500000</v>
+        <f t="shared" ref="F36:F47" si="0">F11</f>
+        <v>30000000</v>
       </c>
       <c r="G36" s="6">
         <f>G11+6</f>
@@ -6948,7 +6929,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -6959,12 +6940,12 @@
         <v>50</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ref="E37:E47" si="0">E12+100000</f>
-        <v>700000</v>
+        <f t="shared" ref="E37" si="1">E12</f>
+        <v>1000000</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ref="F37:F47" si="1">F12+500000</f>
-        <v>10500000</v>
+        <f t="shared" si="0"/>
+        <v>30000000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ref="G37:G47" si="2">G12+6</f>
@@ -6976,23 +6957,23 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" ref="E38" si="4">E13</f>
+        <v>5000000</v>
+      </c>
+      <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>3100000</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>15500000</v>
+        <v>50000000</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="2"/>
@@ -7004,23 +6985,23 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" ref="E39" si="5">E14</f>
+        <v>5000000</v>
+      </c>
+      <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>3600000</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>17500000</v>
+        <v>50000000</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="2"/>
@@ -7032,7 +7013,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
@@ -7043,12 +7024,12 @@
         <v>56</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" ref="E40" si="6">E15</f>
+        <v>1000000</v>
+      </c>
+      <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>2100000</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>10500000</v>
+        <v>30000000</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
@@ -7060,7 +7041,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
@@ -7071,12 +7052,12 @@
         <v>58</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ref="E41" si="7">E16</f>
+        <v>1000000</v>
+      </c>
+      <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>4100000</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>18500000</v>
+        <v>30000000</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="2"/>
@@ -7088,7 +7069,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -7099,12 +7080,12 @@
         <v>60</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" ref="E42" si="8">E17</f>
+        <v>1000000</v>
+      </c>
+      <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1100000</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="2"/>
@@ -7116,7 +7097,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
@@ -7127,12 +7108,12 @@
         <v>62</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" ref="E43" si="9">E18</f>
+        <v>3500000</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>3600000</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>18500000</v>
+        <v>100000000</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="2"/>
@@ -7144,7 +7125,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
@@ -7155,12 +7136,12 @@
         <v>64</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" ref="E44" si="10">E19</f>
+        <v>2000000</v>
+      </c>
+      <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>2100000</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>10500000</v>
+        <v>30000000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="2"/>
@@ -7172,7 +7153,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="22" t="s">
         <v>66</v>
       </c>
@@ -7183,12 +7164,12 @@
         <v>66</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" ref="E45" si="11">E20</f>
+        <v>5000000</v>
+      </c>
+      <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>3100000</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>15500000</v>
+        <v>50000000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="2"/>
@@ -7200,7 +7181,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="22" t="s">
         <v>68</v>
       </c>
@@ -7211,12 +7192,12 @@
         <v>68</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" ref="E46" si="12">E21</f>
+        <v>5000000</v>
+      </c>
+      <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>3100000</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>17500000</v>
+        <v>50000000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="2"/>
@@ -7228,7 +7209,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
@@ -7239,12 +7220,12 @@
         <v>70</v>
       </c>
       <c r="E47" s="2">
+        <f t="shared" ref="E47" si="13">E22</f>
+        <v>100000</v>
+      </c>
+      <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>2800000</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="1"/>
-        <v>17500000</v>
+        <v>30000000</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="2"/>
@@ -7282,7 +7263,7 @@
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -7291,7 +7272,7 @@
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="7" t="s">
         <v>97</v>
       </c>
@@ -7305,31 +7286,31 @@
       <c r="B56" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="17" t="s">
         <v>73</v>
       </c>
@@ -7343,7 +7324,7 @@
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
@@ -7377,7 +7358,7 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -7390,12 +7371,12 @@
         <v>48</v>
       </c>
       <c r="E61" s="6">
-        <f>E36+100000</f>
-        <v>2200000</v>
+        <f>E36</f>
+        <v>1000000</v>
       </c>
       <c r="F61" s="6">
-        <f>F36+500000</f>
-        <v>21000000</v>
+        <f t="shared" ref="F61:F72" si="14">F36</f>
+        <v>30000000</v>
       </c>
       <c r="G61" s="6">
         <f>G36+6</f>
@@ -7407,7 +7388,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="1" t="s">
         <v>50</v>
       </c>
@@ -7418,80 +7399,80 @@
         <v>50</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ref="E62:E72" si="4">E37+100000</f>
-        <v>800000</v>
+        <f t="shared" ref="E62" si="15">E37</f>
+        <v>1000000</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" ref="F62:F72" si="5">F37+500000</f>
-        <v>11000000</v>
+        <f t="shared" si="14"/>
+        <v>30000000</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" ref="G62:G72" si="6">G37+6</f>
+        <f t="shared" ref="G62:G72" si="16">G37+6</f>
         <v>72</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" ref="H62:H72" si="7">H37+12</f>
+        <f t="shared" ref="H62:H72" si="17">H37+12</f>
         <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="4"/>
-        <v>3200000</v>
+        <f t="shared" ref="E63" si="18">E38</f>
+        <v>5000000</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="5"/>
-        <v>16000000</v>
+        <f t="shared" si="14"/>
+        <v>50000000</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="4"/>
-        <v>3700000</v>
+        <f t="shared" ref="E64" si="19">E39</f>
+        <v>5000000</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="5"/>
-        <v>18000000</v>
+        <f t="shared" si="14"/>
+        <v>50000000</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="1" t="s">
         <v>56</v>
       </c>
@@ -7502,24 +7483,24 @@
         <v>56</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="4"/>
-        <v>2200000</v>
+        <f t="shared" ref="E65" si="20">E40</f>
+        <v>1000000</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="5"/>
-        <v>11000000</v>
+        <f t="shared" si="14"/>
+        <v>30000000</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="1" t="s">
         <v>58</v>
       </c>
@@ -7530,24 +7511,24 @@
         <v>58</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="4"/>
-        <v>4200000</v>
+        <f t="shared" ref="E66" si="21">E41</f>
+        <v>1000000</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="5"/>
-        <v>19000000</v>
+        <f t="shared" si="14"/>
+        <v>30000000</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="1" t="s">
         <v>60</v>
       </c>
@@ -7558,24 +7539,24 @@
         <v>60</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="4"/>
-        <v>1200000</v>
+        <f t="shared" ref="E67" si="22">E42</f>
+        <v>1000000</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="5"/>
-        <v>5000000</v>
+        <f t="shared" si="14"/>
+        <v>4000000</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="1" t="s">
         <v>62</v>
       </c>
@@ -7586,24 +7567,24 @@
         <v>62</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="4"/>
-        <v>3700000</v>
+        <f t="shared" ref="E68" si="23">E43</f>
+        <v>3500000</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="5"/>
-        <v>19000000</v>
+        <f t="shared" si="14"/>
+        <v>100000000</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="1" t="s">
         <v>64</v>
       </c>
@@ -7614,24 +7595,24 @@
         <v>64</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="4"/>
-        <v>2200000</v>
+        <f t="shared" ref="E69" si="24">E44</f>
+        <v>2000000</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="5"/>
-        <v>11000000</v>
+        <f t="shared" si="14"/>
+        <v>30000000</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="22" t="s">
         <v>66</v>
       </c>
@@ -7642,24 +7623,24 @@
         <v>66</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="4"/>
-        <v>3200000</v>
+        <f t="shared" ref="E70" si="25">E45</f>
+        <v>5000000</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="5"/>
-        <v>16000000</v>
+        <f t="shared" si="14"/>
+        <v>50000000</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="22" t="s">
         <v>68</v>
       </c>
@@ -7670,24 +7651,24 @@
         <v>68</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="4"/>
-        <v>3200000</v>
+        <f t="shared" ref="E71" si="26">E46</f>
+        <v>5000000</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="5"/>
-        <v>18000000</v>
+        <f t="shared" si="14"/>
+        <v>50000000</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="2" t="s">
         <v>70</v>
       </c>
@@ -7698,19 +7679,19 @@
         <v>70</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>2900000</v>
+        <f t="shared" ref="E72" si="27">E47</f>
+        <v>100000</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="5"/>
-        <v>18000000</v>
+        <f t="shared" si="14"/>
+        <v>30000000</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>264</v>
       </c>
     </row>
@@ -7738,7 +7719,7 @@
       <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -7747,7 +7728,7 @@
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="7" t="s">
         <v>103</v>
       </c>
@@ -7761,31 +7742,31 @@
       <c r="B81" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="17" t="s">
         <v>73</v>
       </c>
@@ -7799,7 +7780,7 @@
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="8" t="s">
         <v>7</v>
       </c>
@@ -7833,7 +7814,7 @@
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -7846,12 +7827,12 @@
         <v>48</v>
       </c>
       <c r="E86" s="6">
-        <f>E61+100000</f>
-        <v>2300000</v>
+        <f>E61</f>
+        <v>1000000</v>
       </c>
       <c r="F86" s="6">
-        <f>F61+500000</f>
-        <v>21500000</v>
+        <f t="shared" ref="F86:F97" si="28">F61</f>
+        <v>30000000</v>
       </c>
       <c r="G86" s="6">
         <f>G61+6</f>
@@ -7863,7 +7844,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="1" t="s">
         <v>50</v>
       </c>
@@ -7874,80 +7855,80 @@
         <v>50</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87:E97" si="8">E62+100000</f>
-        <v>900000</v>
+        <f t="shared" ref="E87" si="29">E62</f>
+        <v>1000000</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87:F97" si="9">F62+500000</f>
-        <v>11500000</v>
+        <f t="shared" si="28"/>
+        <v>30000000</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87:G97" si="10">G62+6</f>
+        <f t="shared" ref="G87:G97" si="30">G62+6</f>
         <v>78</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87:H97" si="11">H62+12</f>
+        <f t="shared" ref="H87:H97" si="31">H62+12</f>
         <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="8"/>
-        <v>3300000</v>
+        <f t="shared" ref="E88" si="32">E63</f>
+        <v>5000000</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="9"/>
-        <v>16500000</v>
+        <f t="shared" si="28"/>
+        <v>50000000</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="8"/>
-        <v>3800000</v>
+        <f t="shared" ref="E89" si="33">E64</f>
+        <v>5000000</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="9"/>
-        <v>18500000</v>
+        <f t="shared" si="28"/>
+        <v>50000000</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
@@ -7958,24 +7939,24 @@
         <v>56</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="8"/>
-        <v>2300000</v>
+        <f t="shared" ref="E90" si="34">E65</f>
+        <v>1000000</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="9"/>
-        <v>11500000</v>
+        <f t="shared" si="28"/>
+        <v>30000000</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
@@ -7986,24 +7967,24 @@
         <v>58</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="8"/>
-        <v>4300000</v>
+        <f t="shared" ref="E91" si="35">E66</f>
+        <v>1000000</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="9"/>
-        <v>19500000</v>
+        <f t="shared" si="28"/>
+        <v>30000000</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="1" t="s">
         <v>60</v>
       </c>
@@ -8014,24 +7995,24 @@
         <v>60</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="8"/>
-        <v>1300000</v>
+        <f t="shared" ref="E92" si="36">E67</f>
+        <v>1000000</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="9"/>
-        <v>5500000</v>
+        <f t="shared" si="28"/>
+        <v>4000000</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="1" t="s">
         <v>62</v>
       </c>
@@ -8042,24 +8023,24 @@
         <v>62</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="8"/>
-        <v>3800000</v>
+        <f t="shared" ref="E93" si="37">E68</f>
+        <v>3500000</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="9"/>
-        <v>19500000</v>
+        <f t="shared" si="28"/>
+        <v>100000000</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
+      <c r="A94" s="27"/>
       <c r="B94" s="1" t="s">
         <v>64</v>
       </c>
@@ -8070,24 +8051,24 @@
         <v>64</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="8"/>
-        <v>2300000</v>
+        <f t="shared" ref="E94" si="38">E69</f>
+        <v>2000000</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="9"/>
-        <v>11500000</v>
+        <f t="shared" si="28"/>
+        <v>30000000</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>103</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
+      <c r="A95" s="27"/>
       <c r="B95" s="22" t="s">
         <v>66</v>
       </c>
@@ -8098,24 +8079,24 @@
         <v>66</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="8"/>
-        <v>3300000</v>
+        <f t="shared" ref="E95" si="39">E70</f>
+        <v>5000000</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="9"/>
-        <v>16500000</v>
+        <f t="shared" si="28"/>
+        <v>50000000</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>103</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
+      <c r="A96" s="27"/>
       <c r="B96" s="22" t="s">
         <v>68</v>
       </c>
@@ -8126,24 +8107,24 @@
         <v>68</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="8"/>
-        <v>3300000</v>
+        <f t="shared" ref="E96" si="40">E71</f>
+        <v>5000000</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="9"/>
-        <v>18500000</v>
+        <f t="shared" si="28"/>
+        <v>50000000</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="2" t="s">
         <v>70</v>
       </c>
@@ -8154,19 +8135,19 @@
         <v>70</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="8"/>
-        <v>3000000</v>
+        <f t="shared" ref="E97" si="41">E72</f>
+        <v>100000</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="9"/>
-        <v>18500000</v>
+        <f t="shared" si="28"/>
+        <v>30000000</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>103</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>276</v>
       </c>
     </row>
@@ -8180,6 +8161,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A36:A47"/>
     <mergeCell ref="A86:A97"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="B57:H57"/>
@@ -8190,20 +8185,6 @@
     <mergeCell ref="C83:H83"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A61:A72"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A11:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
